--- a/docs/詳細設計書/詳細設計書_分類情報画面_DB操作①.xlsx
+++ b/docs/詳細設計書/詳細設計書_分類情報画面_DB操作①.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Kijima/Documents/digital-ojt-development-cause-DroneInventorySystem/docs/詳細設計書/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\digitalOJT\digital-ojt-development-cause-DroneInventorySystem\docs\詳細設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57B4B262-8949-3240-BCCD-DA2B884408EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E545BAAD-C9A0-4B40-82D1-249AC05308F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3500" yWindow="740" windowWidth="25900" windowHeight="17000" xr2:uid="{94E1F5D5-5A75-8F40-A2A1-CC833EFCF558}"/>
+    <workbookView xWindow="-14640" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{94E1F5D5-5A75-8F40-A2A1-CC833EFCF558}"/>
   </bookViews>
   <sheets>
     <sheet name="機能概要" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="69">
   <si>
     <t>システム名</t>
     <phoneticPr fontId="1"/>
@@ -263,34 +263,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>分類情報の一覧の確認および、分類情報の新規作成/更新/削除が行える。</t>
-    <rPh sb="0" eb="2">
-      <t>ブンルイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>イチラn</t>
-    </rPh>
-    <rPh sb="14" eb="18">
-      <t>ブンルイ</t>
-    </rPh>
-    <rPh sb="19" eb="23">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>コウシn</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>サクゼィオ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>オコナエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>分類情報テーブル</t>
     <rPh sb="0" eb="2">
       <t>ブンルイ</t>
@@ -451,6 +423,82 @@
     <t>　※テーブル定義書参照</t>
     <rPh sb="8" eb="9">
       <t>sy</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CTC道菅</t>
+    <rPh sb="3" eb="5">
+      <t>ドウカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能概要修正</t>
+    <rPh sb="0" eb="6">
+      <t>キノウガイヨウシュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>分類情報の一覧の確認が行える。</t>
+    <rPh sb="0" eb="2">
+      <t>ブンルイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イチラn</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オコナエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>分類情報に関してはDBの category_info テーブルから取得する</t>
+    <rPh sb="0" eb="9">
+      <t>ブンルイジョウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>処理</t>
+    <rPh sb="0" eb="2">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A6セル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面イメージ</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→処理に変更</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出力</t>
+    <rPh sb="0" eb="2">
+      <t>シュツリョク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -459,7 +507,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -829,90 +877,93 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -934,6 +985,69 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -941,6 +1055,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -948,87 +1077,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1595,267 +1643,271 @@
   </sheetPr>
   <dimension ref="A1:AO33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:N4"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="W9" sqref="W9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="3.7109375" defaultRowHeight="20" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="3.7265625" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="16384" width="3.7109375" style="2"/>
+    <col min="1" max="16384" width="3.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" ht="20" customHeight="1">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="42" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="42"/>
-      <c r="S1" s="42"/>
-      <c r="T1" s="44" t="s">
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="45"/>
+      <c r="T1" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="U1" s="45"/>
-      <c r="V1" s="45"/>
-      <c r="W1" s="45"/>
-      <c r="X1" s="45"/>
-      <c r="Y1" s="45"/>
-      <c r="Z1" s="45"/>
-      <c r="AA1" s="46"/>
-      <c r="AB1" s="42" t="s">
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="43"/>
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="43"/>
+      <c r="AA1" s="44"/>
+      <c r="AB1" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="AC1" s="42"/>
-      <c r="AD1" s="42"/>
-      <c r="AE1" s="39" t="s">
+      <c r="AC1" s="45"/>
+      <c r="AD1" s="45"/>
+      <c r="AE1" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="AF1" s="39"/>
-      <c r="AG1" s="39"/>
-      <c r="AH1" s="39"/>
-      <c r="AI1" s="42" t="s">
+      <c r="AF1" s="57"/>
+      <c r="AG1" s="57"/>
+      <c r="AH1" s="57"/>
+      <c r="AI1" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="AJ1" s="42"/>
-      <c r="AK1" s="42"/>
-      <c r="AL1" s="58">
+      <c r="AJ1" s="45"/>
+      <c r="AK1" s="45"/>
+      <c r="AL1" s="40">
         <v>45566</v>
       </c>
-      <c r="AM1" s="43"/>
-      <c r="AN1" s="43"/>
-      <c r="AO1" s="43"/>
-    </row>
-    <row r="2" spans="1:41" ht="20" customHeight="1">
-      <c r="A2" s="52"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="42" t="s">
+      <c r="AM1" s="41"/>
+      <c r="AN1" s="41"/>
+      <c r="AO1" s="41"/>
+    </row>
+    <row r="2" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="51"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="42"/>
-      <c r="R2" s="42"/>
-      <c r="S2" s="42"/>
-      <c r="T2" s="44" t="s">
+      <c r="P2" s="45"/>
+      <c r="Q2" s="45"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="45"/>
+      <c r="T2" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="U2" s="45"/>
-      <c r="V2" s="45"/>
-      <c r="W2" s="45"/>
-      <c r="X2" s="45"/>
-      <c r="Y2" s="45"/>
-      <c r="Z2" s="45"/>
-      <c r="AA2" s="46"/>
-      <c r="AB2" s="42"/>
-      <c r="AC2" s="42"/>
-      <c r="AD2" s="42"/>
-      <c r="AE2" s="39"/>
-      <c r="AF2" s="39"/>
-      <c r="AG2" s="39"/>
-      <c r="AH2" s="39"/>
-      <c r="AI2" s="42"/>
-      <c r="AJ2" s="42"/>
-      <c r="AK2" s="42"/>
-      <c r="AL2" s="43"/>
-      <c r="AM2" s="43"/>
-      <c r="AN2" s="43"/>
-      <c r="AO2" s="43"/>
-    </row>
-    <row r="3" spans="1:41" ht="20" customHeight="1">
-      <c r="A3" s="52"/>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="42" t="s">
+      <c r="U2" s="43"/>
+      <c r="V2" s="43"/>
+      <c r="W2" s="43"/>
+      <c r="X2" s="43"/>
+      <c r="Y2" s="43"/>
+      <c r="Z2" s="43"/>
+      <c r="AA2" s="44"/>
+      <c r="AB2" s="45"/>
+      <c r="AC2" s="45"/>
+      <c r="AD2" s="45"/>
+      <c r="AE2" s="57"/>
+      <c r="AF2" s="57"/>
+      <c r="AG2" s="57"/>
+      <c r="AH2" s="57"/>
+      <c r="AI2" s="45"/>
+      <c r="AJ2" s="45"/>
+      <c r="AK2" s="45"/>
+      <c r="AL2" s="41"/>
+      <c r="AM2" s="41"/>
+      <c r="AN2" s="41"/>
+      <c r="AO2" s="41"/>
+    </row>
+    <row r="3" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="42"/>
-      <c r="S3" s="42"/>
-      <c r="T3" s="39" t="s">
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="45"/>
+      <c r="S3" s="45"/>
+      <c r="T3" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="U3" s="57"/>
+      <c r="V3" s="57"/>
+      <c r="W3" s="57"/>
+      <c r="X3" s="57"/>
+      <c r="Y3" s="57"/>
+      <c r="Z3" s="57"/>
+      <c r="AA3" s="57"/>
+      <c r="AB3" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC3" s="45"/>
+      <c r="AD3" s="45"/>
+      <c r="AE3" s="57" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF3" s="57"/>
+      <c r="AG3" s="57"/>
+      <c r="AH3" s="57"/>
+      <c r="AI3" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ3" s="45"/>
+      <c r="AK3" s="45"/>
+      <c r="AL3" s="40">
+        <v>45607</v>
+      </c>
+      <c r="AM3" s="41"/>
+      <c r="AN3" s="41"/>
+      <c r="AO3" s="41"/>
+    </row>
+    <row r="4" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="54"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="45"/>
+      <c r="R4" s="45"/>
+      <c r="S4" s="45"/>
+      <c r="T4" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="U3" s="39"/>
-      <c r="V3" s="39"/>
-      <c r="W3" s="39"/>
-      <c r="X3" s="39"/>
-      <c r="Y3" s="39"/>
-      <c r="Z3" s="39"/>
-      <c r="AA3" s="39"/>
-      <c r="AB3" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC3" s="42"/>
-      <c r="AD3" s="42"/>
-      <c r="AE3" s="39"/>
-      <c r="AF3" s="39"/>
-      <c r="AG3" s="39"/>
-      <c r="AH3" s="39"/>
-      <c r="AI3" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="AJ3" s="42"/>
-      <c r="AK3" s="42"/>
-      <c r="AL3" s="43"/>
-      <c r="AM3" s="43"/>
-      <c r="AN3" s="43"/>
-      <c r="AO3" s="43"/>
-    </row>
-    <row r="4" spans="1:41" ht="20" customHeight="1">
-      <c r="A4" s="55"/>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="57"/>
-      <c r="O4" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="42"/>
-      <c r="R4" s="42"/>
-      <c r="S4" s="42"/>
-      <c r="T4" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="U4" s="39"/>
-      <c r="V4" s="39"/>
-      <c r="W4" s="39"/>
-      <c r="X4" s="39"/>
-      <c r="Y4" s="39"/>
-      <c r="Z4" s="39"/>
-      <c r="AA4" s="39"/>
-      <c r="AB4" s="42"/>
-      <c r="AC4" s="42"/>
-      <c r="AD4" s="42"/>
-      <c r="AE4" s="39"/>
-      <c r="AF4" s="39"/>
-      <c r="AG4" s="39"/>
-      <c r="AH4" s="39"/>
-      <c r="AI4" s="42"/>
-      <c r="AJ4" s="42"/>
-      <c r="AK4" s="42"/>
-      <c r="AL4" s="43"/>
-      <c r="AM4" s="43"/>
-      <c r="AN4" s="43"/>
-      <c r="AO4" s="43"/>
-    </row>
-    <row r="5" spans="1:41" ht="20" customHeight="1">
-      <c r="A5" s="40" t="s">
+      <c r="U4" s="57"/>
+      <c r="V4" s="57"/>
+      <c r="W4" s="57"/>
+      <c r="X4" s="57"/>
+      <c r="Y4" s="57"/>
+      <c r="Z4" s="57"/>
+      <c r="AA4" s="57"/>
+      <c r="AB4" s="45"/>
+      <c r="AC4" s="45"/>
+      <c r="AD4" s="45"/>
+      <c r="AE4" s="57"/>
+      <c r="AF4" s="57"/>
+      <c r="AG4" s="57"/>
+      <c r="AH4" s="57"/>
+      <c r="AI4" s="45"/>
+      <c r="AJ4" s="45"/>
+      <c r="AK4" s="45"/>
+      <c r="AL4" s="41"/>
+      <c r="AM4" s="41"/>
+      <c r="AN4" s="41"/>
+      <c r="AO4" s="41"/>
+    </row>
+    <row r="5" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="40"/>
-      <c r="R5" s="40"/>
-      <c r="S5" s="40"/>
-      <c r="T5" s="40"/>
-      <c r="U5" s="40"/>
-      <c r="V5" s="40"/>
-      <c r="W5" s="40" t="s">
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="39"/>
+      <c r="P5" s="39"/>
+      <c r="Q5" s="39"/>
+      <c r="R5" s="39"/>
+      <c r="S5" s="39"/>
+      <c r="T5" s="39"/>
+      <c r="U5" s="39"/>
+      <c r="V5" s="39"/>
+      <c r="W5" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="X5" s="40"/>
-      <c r="Y5" s="40"/>
-      <c r="Z5" s="40"/>
-      <c r="AA5" s="40"/>
-      <c r="AB5" s="40"/>
-      <c r="AC5" s="40"/>
-      <c r="AD5" s="40"/>
-      <c r="AE5" s="40"/>
-      <c r="AF5" s="40"/>
-      <c r="AG5" s="40"/>
-      <c r="AH5" s="40"/>
-      <c r="AI5" s="40"/>
-      <c r="AJ5" s="40"/>
-      <c r="AK5" s="40"/>
-      <c r="AL5" s="40"/>
-      <c r="AM5" s="40" t="s">
+      <c r="X5" s="39"/>
+      <c r="Y5" s="39"/>
+      <c r="Z5" s="39"/>
+      <c r="AA5" s="39"/>
+      <c r="AB5" s="39"/>
+      <c r="AC5" s="39"/>
+      <c r="AD5" s="39"/>
+      <c r="AE5" s="39"/>
+      <c r="AF5" s="39"/>
+      <c r="AG5" s="39"/>
+      <c r="AH5" s="39"/>
+      <c r="AI5" s="39"/>
+      <c r="AJ5" s="39"/>
+      <c r="AK5" s="39"/>
+      <c r="AL5" s="39"/>
+      <c r="AM5" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="AN5" s="40"/>
-      <c r="AO5" s="40"/>
-    </row>
-    <row r="6" spans="1:41" ht="20" customHeight="1">
+      <c r="AN5" s="39"/>
+      <c r="AO5" s="39"/>
+    </row>
+    <row r="6" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A6" s="3"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -1900,11 +1952,11 @@
       <c r="AN6" s="4"/>
       <c r="AO6" s="5"/>
     </row>
-    <row r="7" spans="1:41" ht="20" customHeight="1">
+    <row r="7" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A7" s="6"/>
       <c r="V7" s="7"/>
       <c r="W7" s="22" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
@@ -1921,16 +1973,21 @@
       <c r="AJ7" s="1"/>
       <c r="AK7" s="1"/>
       <c r="AL7" s="14"/>
-      <c r="AM7" s="6"/>
+      <c r="AM7" s="6" t="s">
+        <v>60</v>
+      </c>
       <c r="AO7" s="7"/>
     </row>
-    <row r="8" spans="1:41" ht="20" customHeight="1">
+    <row r="8" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A8" s="6"/>
       <c r="V8" s="7"/>
+      <c r="W8" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="AM8" s="6"/>
       <c r="AO8" s="7"/>
     </row>
-    <row r="9" spans="1:41" ht="20" customHeight="1">
+    <row r="9" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A9" s="6"/>
       <c r="V9" s="7"/>
       <c r="W9" s="22"/>
@@ -1952,7 +2009,7 @@
       <c r="AM9" s="6"/>
       <c r="AO9" s="7"/>
     </row>
-    <row r="10" spans="1:41" ht="20" customHeight="1">
+    <row r="10" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A10" s="6"/>
       <c r="V10" s="7"/>
       <c r="W10" s="22"/>
@@ -1974,7 +2031,7 @@
       <c r="AM10" s="6"/>
       <c r="AO10" s="7"/>
     </row>
-    <row r="11" spans="1:41" ht="20" customHeight="1">
+    <row r="11" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A11" s="6"/>
       <c r="V11" s="7"/>
       <c r="W11" s="22"/>
@@ -1996,7 +2053,7 @@
       <c r="AM11" s="6"/>
       <c r="AO11" s="7"/>
     </row>
-    <row r="12" spans="1:41" ht="20" customHeight="1">
+    <row r="12" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A12" s="6"/>
       <c r="V12" s="7"/>
       <c r="W12" s="22"/>
@@ -2018,7 +2075,7 @@
       <c r="AM12" s="6"/>
       <c r="AO12" s="7"/>
     </row>
-    <row r="13" spans="1:41" ht="20" customHeight="1">
+    <row r="13" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A13" s="6"/>
       <c r="V13" s="7"/>
       <c r="W13" s="22"/>
@@ -2040,7 +2097,7 @@
       <c r="AM13" s="6"/>
       <c r="AO13" s="7"/>
     </row>
-    <row r="14" spans="1:41" ht="20" customHeight="1">
+    <row r="14" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A14" s="6"/>
       <c r="V14" s="7"/>
       <c r="W14" s="22"/>
@@ -2062,7 +2119,7 @@
       <c r="AM14" s="6"/>
       <c r="AO14" s="7"/>
     </row>
-    <row r="15" spans="1:41" ht="20" customHeight="1">
+    <row r="15" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A15" s="6"/>
       <c r="V15" s="7"/>
       <c r="W15" s="22"/>
@@ -2084,7 +2141,7 @@
       <c r="AM15" s="6"/>
       <c r="AO15" s="7"/>
     </row>
-    <row r="16" spans="1:41" ht="20" customHeight="1">
+    <row r="16" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A16" s="6"/>
       <c r="V16" s="7"/>
       <c r="W16" s="22"/>
@@ -2106,7 +2163,7 @@
       <c r="AM16" s="6"/>
       <c r="AO16" s="7"/>
     </row>
-    <row r="17" spans="1:41" ht="20" customHeight="1">
+    <row r="17" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A17" s="6"/>
       <c r="V17" s="7"/>
       <c r="W17" s="22"/>
@@ -2128,7 +2185,7 @@
       <c r="AM17" s="6"/>
       <c r="AO17" s="7"/>
     </row>
-    <row r="18" spans="1:41" ht="20" customHeight="1">
+    <row r="18" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A18" s="6"/>
       <c r="V18" s="7"/>
       <c r="W18" s="22"/>
@@ -2150,7 +2207,7 @@
       <c r="AM18" s="6"/>
       <c r="AO18" s="7"/>
     </row>
-    <row r="19" spans="1:41" ht="20" customHeight="1">
+    <row r="19" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A19" s="8"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -2193,25 +2250,25 @@
       <c r="AN19" s="9"/>
       <c r="AO19" s="10"/>
     </row>
-    <row r="20" spans="1:41" ht="20" customHeight="1">
-      <c r="A20" s="40" t="s">
+    <row r="20" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A20" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="40"/>
-      <c r="C20" s="47" t="s">
+      <c r="B20" s="39"/>
+      <c r="C20" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="48"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="48"/>
-      <c r="K20" s="40" t="s">
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="L20" s="40"/>
+      <c r="L20" s="39"/>
       <c r="M20" s="24" t="s">
         <v>14</v>
       </c>
@@ -2224,41 +2281,41 @@
       <c r="P20" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="Q20" s="47" t="s">
+      <c r="Q20" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="R20" s="48"/>
-      <c r="S20" s="48"/>
-      <c r="T20" s="48"/>
-      <c r="U20" s="48"/>
-      <c r="V20" s="48"/>
-      <c r="W20" s="48"/>
-      <c r="X20" s="48"/>
-      <c r="Y20" s="48"/>
-      <c r="Z20" s="48"/>
-      <c r="AA20" s="48"/>
-      <c r="AB20" s="48"/>
-      <c r="AC20" s="48"/>
-      <c r="AD20" s="48"/>
-      <c r="AE20" s="48"/>
-      <c r="AF20" s="48"/>
-      <c r="AG20" s="48"/>
-      <c r="AH20" s="48"/>
-      <c r="AI20" s="48"/>
-      <c r="AJ20" s="48"/>
-      <c r="AK20" s="48"/>
-      <c r="AL20" s="48"/>
-      <c r="AM20" s="48"/>
-      <c r="AN20" s="48"/>
-      <c r="AO20" s="48"/>
-    </row>
-    <row r="21" spans="1:41" ht="20" customHeight="1">
-      <c r="A21" s="39">
+      <c r="R20" s="47"/>
+      <c r="S20" s="47"/>
+      <c r="T20" s="47"/>
+      <c r="U20" s="47"/>
+      <c r="V20" s="47"/>
+      <c r="W20" s="47"/>
+      <c r="X20" s="47"/>
+      <c r="Y20" s="47"/>
+      <c r="Z20" s="47"/>
+      <c r="AA20" s="47"/>
+      <c r="AB20" s="47"/>
+      <c r="AC20" s="47"/>
+      <c r="AD20" s="47"/>
+      <c r="AE20" s="47"/>
+      <c r="AF20" s="47"/>
+      <c r="AG20" s="47"/>
+      <c r="AH20" s="47"/>
+      <c r="AI20" s="47"/>
+      <c r="AJ20" s="47"/>
+      <c r="AK20" s="47"/>
+      <c r="AL20" s="47"/>
+      <c r="AM20" s="47"/>
+      <c r="AN20" s="47"/>
+      <c r="AO20" s="47"/>
+    </row>
+    <row r="21" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A21" s="57">
         <v>1</v>
       </c>
-      <c r="B21" s="41"/>
+      <c r="B21" s="58"/>
       <c r="C21" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D21" s="18"/>
       <c r="E21" s="18"/>
@@ -2267,10 +2324,10 @@
       <c r="H21" s="18"/>
       <c r="I21" s="18"/>
       <c r="J21" s="18"/>
-      <c r="K21" s="39" t="s">
+      <c r="K21" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="L21" s="39"/>
+      <c r="L21" s="57"/>
       <c r="M21" s="20" t="s">
         <v>32</v>
       </c>
@@ -2309,9 +2366,9 @@
       <c r="AN21" s="18"/>
       <c r="AO21" s="19"/>
     </row>
-    <row r="22" spans="1:41" ht="20" customHeight="1">
-      <c r="A22" s="39"/>
-      <c r="B22" s="41"/>
+    <row r="22" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A22" s="57"/>
+      <c r="B22" s="58"/>
       <c r="C22" s="17"/>
       <c r="D22" s="18"/>
       <c r="E22" s="18"/>
@@ -2320,8 +2377,8 @@
       <c r="H22" s="18"/>
       <c r="I22" s="18"/>
       <c r="J22" s="18"/>
-      <c r="K22" s="39"/>
-      <c r="L22" s="39"/>
+      <c r="K22" s="57"/>
+      <c r="L22" s="57"/>
       <c r="M22" s="20"/>
       <c r="N22" s="20"/>
       <c r="O22" s="20"/>
@@ -2352,9 +2409,9 @@
       <c r="AN22" s="18"/>
       <c r="AO22" s="19"/>
     </row>
-    <row r="23" spans="1:41" ht="20" customHeight="1">
-      <c r="A23" s="39"/>
-      <c r="B23" s="41"/>
+    <row r="23" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A23" s="57"/>
+      <c r="B23" s="58"/>
       <c r="C23" s="17"/>
       <c r="D23" s="18"/>
       <c r="E23" s="18"/>
@@ -2363,8 +2420,8 @@
       <c r="H23" s="18"/>
       <c r="I23" s="18"/>
       <c r="J23" s="18"/>
-      <c r="K23" s="39"/>
-      <c r="L23" s="39"/>
+      <c r="K23" s="57"/>
+      <c r="L23" s="57"/>
       <c r="M23" s="20"/>
       <c r="N23" s="20"/>
       <c r="O23" s="20"/>
@@ -2395,9 +2452,9 @@
       <c r="AN23" s="18"/>
       <c r="AO23" s="19"/>
     </row>
-    <row r="24" spans="1:41" ht="20" customHeight="1">
-      <c r="A24" s="39"/>
-      <c r="B24" s="39"/>
+    <row r="24" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A24" s="57"/>
+      <c r="B24" s="57"/>
       <c r="C24" s="17"/>
       <c r="D24" s="18"/>
       <c r="E24" s="18"/>
@@ -2406,8 +2463,8 @@
       <c r="H24" s="18"/>
       <c r="I24" s="18"/>
       <c r="J24" s="18"/>
-      <c r="K24" s="39"/>
-      <c r="L24" s="39"/>
+      <c r="K24" s="57"/>
+      <c r="L24" s="57"/>
       <c r="M24" s="20"/>
       <c r="N24" s="20"/>
       <c r="O24" s="20"/>
@@ -2438,9 +2495,9 @@
       <c r="AN24" s="18"/>
       <c r="AO24" s="19"/>
     </row>
-    <row r="25" spans="1:41" ht="20" customHeight="1">
-      <c r="A25" s="39"/>
-      <c r="B25" s="39"/>
+    <row r="25" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A25" s="57"/>
+      <c r="B25" s="57"/>
       <c r="C25" s="17"/>
       <c r="D25" s="18"/>
       <c r="E25" s="18"/>
@@ -2449,8 +2506,8 @@
       <c r="H25" s="18"/>
       <c r="I25" s="18"/>
       <c r="J25" s="18"/>
-      <c r="K25" s="39"/>
-      <c r="L25" s="39"/>
+      <c r="K25" s="57"/>
+      <c r="L25" s="57"/>
       <c r="M25" s="20"/>
       <c r="N25" s="20"/>
       <c r="O25" s="20"/>
@@ -2481,9 +2538,9 @@
       <c r="AN25" s="18"/>
       <c r="AO25" s="19"/>
     </row>
-    <row r="26" spans="1:41" ht="20" customHeight="1">
-      <c r="A26" s="39"/>
-      <c r="B26" s="39"/>
+    <row r="26" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A26" s="57"/>
+      <c r="B26" s="57"/>
       <c r="C26" s="17"/>
       <c r="D26" s="18"/>
       <c r="E26" s="18"/>
@@ -2492,8 +2549,8 @@
       <c r="H26" s="18"/>
       <c r="I26" s="18"/>
       <c r="J26" s="18"/>
-      <c r="K26" s="39"/>
-      <c r="L26" s="39"/>
+      <c r="K26" s="57"/>
+      <c r="L26" s="57"/>
       <c r="M26" s="20"/>
       <c r="N26" s="20"/>
       <c r="O26" s="20"/>
@@ -2524,9 +2581,9 @@
       <c r="AN26" s="18"/>
       <c r="AO26" s="19"/>
     </row>
-    <row r="27" spans="1:41" ht="20" customHeight="1">
-      <c r="A27" s="39"/>
-      <c r="B27" s="39"/>
+    <row r="27" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A27" s="57"/>
+      <c r="B27" s="57"/>
       <c r="C27" s="17"/>
       <c r="D27" s="18"/>
       <c r="E27" s="18"/>
@@ -2535,8 +2592,8 @@
       <c r="H27" s="18"/>
       <c r="I27" s="18"/>
       <c r="J27" s="18"/>
-      <c r="K27" s="39"/>
-      <c r="L27" s="39"/>
+      <c r="K27" s="57"/>
+      <c r="L27" s="57"/>
       <c r="M27" s="20"/>
       <c r="N27" s="20"/>
       <c r="O27" s="20"/>
@@ -2567,9 +2624,9 @@
       <c r="AN27" s="18"/>
       <c r="AO27" s="19"/>
     </row>
-    <row r="28" spans="1:41" ht="20" customHeight="1">
-      <c r="A28" s="39"/>
-      <c r="B28" s="39"/>
+    <row r="28" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A28" s="57"/>
+      <c r="B28" s="57"/>
       <c r="C28" s="17"/>
       <c r="D28" s="18"/>
       <c r="E28" s="18"/>
@@ -2578,8 +2635,8 @@
       <c r="H28" s="18"/>
       <c r="I28" s="18"/>
       <c r="J28" s="18"/>
-      <c r="K28" s="39"/>
-      <c r="L28" s="39"/>
+      <c r="K28" s="57"/>
+      <c r="L28" s="57"/>
       <c r="M28" s="20"/>
       <c r="N28" s="20"/>
       <c r="O28" s="20"/>
@@ -2610,9 +2667,9 @@
       <c r="AN28" s="18"/>
       <c r="AO28" s="19"/>
     </row>
-    <row r="29" spans="1:41" ht="20" customHeight="1">
-      <c r="A29" s="39"/>
-      <c r="B29" s="39"/>
+    <row r="29" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A29" s="57"/>
+      <c r="B29" s="57"/>
       <c r="C29" s="17"/>
       <c r="D29" s="18"/>
       <c r="E29" s="18"/>
@@ -2621,8 +2678,8 @@
       <c r="H29" s="18"/>
       <c r="I29" s="18"/>
       <c r="J29" s="18"/>
-      <c r="K29" s="39"/>
-      <c r="L29" s="39"/>
+      <c r="K29" s="57"/>
+      <c r="L29" s="57"/>
       <c r="M29" s="20"/>
       <c r="N29" s="20"/>
       <c r="O29" s="20"/>
@@ -2653,9 +2710,9 @@
       <c r="AN29" s="18"/>
       <c r="AO29" s="19"/>
     </row>
-    <row r="30" spans="1:41" ht="20" customHeight="1">
-      <c r="A30" s="39"/>
-      <c r="B30" s="39"/>
+    <row r="30" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A30" s="57"/>
+      <c r="B30" s="57"/>
       <c r="C30" s="17"/>
       <c r="D30" s="18"/>
       <c r="E30" s="18"/>
@@ -2664,8 +2721,8 @@
       <c r="H30" s="18"/>
       <c r="I30" s="18"/>
       <c r="J30" s="18"/>
-      <c r="K30" s="39"/>
-      <c r="L30" s="39"/>
+      <c r="K30" s="57"/>
+      <c r="L30" s="57"/>
       <c r="M30" s="20"/>
       <c r="N30" s="20"/>
       <c r="O30" s="20"/>
@@ -2696,9 +2753,9 @@
       <c r="AN30" s="18"/>
       <c r="AO30" s="19"/>
     </row>
-    <row r="31" spans="1:41" ht="20" customHeight="1">
-      <c r="A31" s="39"/>
-      <c r="B31" s="39"/>
+    <row r="31" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A31" s="57"/>
+      <c r="B31" s="57"/>
       <c r="C31" s="17"/>
       <c r="D31" s="18"/>
       <c r="E31" s="18"/>
@@ -2707,8 +2764,8 @@
       <c r="H31" s="18"/>
       <c r="I31" s="18"/>
       <c r="J31" s="18"/>
-      <c r="K31" s="39"/>
-      <c r="L31" s="39"/>
+      <c r="K31" s="57"/>
+      <c r="L31" s="57"/>
       <c r="M31" s="20"/>
       <c r="N31" s="20"/>
       <c r="O31" s="20"/>
@@ -2739,9 +2796,9 @@
       <c r="AN31" s="18"/>
       <c r="AO31" s="19"/>
     </row>
-    <row r="32" spans="1:41" ht="20" customHeight="1">
-      <c r="A32" s="39"/>
-      <c r="B32" s="39"/>
+    <row r="32" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A32" s="57"/>
+      <c r="B32" s="57"/>
       <c r="C32" s="17"/>
       <c r="D32" s="18"/>
       <c r="E32" s="18"/>
@@ -2750,8 +2807,8 @@
       <c r="H32" s="18"/>
       <c r="I32" s="18"/>
       <c r="J32" s="18"/>
-      <c r="K32" s="39"/>
-      <c r="L32" s="39"/>
+      <c r="K32" s="57"/>
+      <c r="L32" s="57"/>
       <c r="M32" s="20"/>
       <c r="N32" s="20"/>
       <c r="O32" s="20"/>
@@ -2782,9 +2839,9 @@
       <c r="AN32" s="18"/>
       <c r="AO32" s="19"/>
     </row>
-    <row r="33" spans="1:41" ht="20" customHeight="1">
-      <c r="A33" s="38"/>
-      <c r="B33" s="38"/>
+    <row r="33" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A33" s="59"/>
+      <c r="B33" s="59"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -2827,6 +2884,39 @@
     </row>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="AE1:AH2"/>
+    <mergeCell ref="AE3:AH4"/>
+    <mergeCell ref="AI1:AK2"/>
+    <mergeCell ref="AI3:AK4"/>
+    <mergeCell ref="T4:AA4"/>
+    <mergeCell ref="T3:AA3"/>
     <mergeCell ref="W5:AL5"/>
     <mergeCell ref="AL3:AO4"/>
     <mergeCell ref="T1:AA1"/>
@@ -2843,44 +2933,11 @@
     <mergeCell ref="O1:S1"/>
     <mergeCell ref="O2:S2"/>
     <mergeCell ref="AL1:AO2"/>
-    <mergeCell ref="AE1:AH2"/>
-    <mergeCell ref="AE3:AH4"/>
-    <mergeCell ref="AI1:AK2"/>
-    <mergeCell ref="AI3:AK4"/>
-    <mergeCell ref="T4:AA4"/>
-    <mergeCell ref="T3:AA3"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="K32:L32"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="46" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" scale="46" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2892,242 +2949,242 @@
   <dimension ref="A1:AO55"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:N4"/>
+      <selection activeCell="A6" sqref="A6:AL6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="3.7109375" defaultRowHeight="20" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="3.7265625" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="8" width="3.7109375" style="2"/>
-    <col min="9" max="9" width="3.7109375" style="2" customWidth="1"/>
+    <col min="1" max="8" width="3.7265625" style="2"/>
+    <col min="9" max="9" width="3.7265625" style="2" customWidth="1"/>
     <col min="10" max="14" width="4" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="3.7109375" style="2"/>
+    <col min="15" max="16384" width="3.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" ht="20" customHeight="1">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="42" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="42"/>
-      <c r="S1" s="42"/>
-      <c r="T1" s="44" t="s">
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="45"/>
+      <c r="T1" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="U1" s="45"/>
-      <c r="V1" s="45"/>
-      <c r="W1" s="45"/>
-      <c r="X1" s="45"/>
-      <c r="Y1" s="45"/>
-      <c r="Z1" s="45"/>
-      <c r="AA1" s="46"/>
-      <c r="AB1" s="42" t="s">
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="43"/>
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="43"/>
+      <c r="AA1" s="44"/>
+      <c r="AB1" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="AC1" s="42"/>
-      <c r="AD1" s="42"/>
-      <c r="AE1" s="39" t="s">
+      <c r="AC1" s="45"/>
+      <c r="AD1" s="45"/>
+      <c r="AE1" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="AF1" s="39"/>
-      <c r="AG1" s="39"/>
-      <c r="AH1" s="39"/>
-      <c r="AI1" s="42" t="s">
+      <c r="AF1" s="57"/>
+      <c r="AG1" s="57"/>
+      <c r="AH1" s="57"/>
+      <c r="AI1" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="AJ1" s="42"/>
-      <c r="AK1" s="42"/>
-      <c r="AL1" s="58">
+      <c r="AJ1" s="45"/>
+      <c r="AK1" s="45"/>
+      <c r="AL1" s="40">
         <v>45566</v>
       </c>
-      <c r="AM1" s="43"/>
-      <c r="AN1" s="43"/>
-      <c r="AO1" s="43"/>
-    </row>
-    <row r="2" spans="1:41" ht="20" customHeight="1">
-      <c r="A2" s="52"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="42" t="s">
+      <c r="AM1" s="41"/>
+      <c r="AN1" s="41"/>
+      <c r="AO1" s="41"/>
+    </row>
+    <row r="2" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="51"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="42"/>
-      <c r="R2" s="42"/>
-      <c r="S2" s="42"/>
-      <c r="T2" s="44" t="s">
+      <c r="P2" s="45"/>
+      <c r="Q2" s="45"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="45"/>
+      <c r="T2" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="U2" s="45"/>
-      <c r="V2" s="45"/>
-      <c r="W2" s="45"/>
-      <c r="X2" s="45"/>
-      <c r="Y2" s="45"/>
-      <c r="Z2" s="45"/>
-      <c r="AA2" s="46"/>
-      <c r="AB2" s="42"/>
-      <c r="AC2" s="42"/>
-      <c r="AD2" s="42"/>
-      <c r="AE2" s="39"/>
-      <c r="AF2" s="39"/>
-      <c r="AG2" s="39"/>
-      <c r="AH2" s="39"/>
-      <c r="AI2" s="42"/>
-      <c r="AJ2" s="42"/>
-      <c r="AK2" s="42"/>
-      <c r="AL2" s="43"/>
-      <c r="AM2" s="43"/>
-      <c r="AN2" s="43"/>
-      <c r="AO2" s="43"/>
-    </row>
-    <row r="3" spans="1:41" ht="20" customHeight="1">
-      <c r="A3" s="52"/>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="42" t="s">
+      <c r="U2" s="43"/>
+      <c r="V2" s="43"/>
+      <c r="W2" s="43"/>
+      <c r="X2" s="43"/>
+      <c r="Y2" s="43"/>
+      <c r="Z2" s="43"/>
+      <c r="AA2" s="44"/>
+      <c r="AB2" s="45"/>
+      <c r="AC2" s="45"/>
+      <c r="AD2" s="45"/>
+      <c r="AE2" s="57"/>
+      <c r="AF2" s="57"/>
+      <c r="AG2" s="57"/>
+      <c r="AH2" s="57"/>
+      <c r="AI2" s="45"/>
+      <c r="AJ2" s="45"/>
+      <c r="AK2" s="45"/>
+      <c r="AL2" s="41"/>
+      <c r="AM2" s="41"/>
+      <c r="AN2" s="41"/>
+      <c r="AO2" s="41"/>
+    </row>
+    <row r="3" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="42"/>
-      <c r="S3" s="42"/>
-      <c r="T3" s="39" t="s">
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="45"/>
+      <c r="S3" s="45"/>
+      <c r="T3" s="57" t="s">
+        <v>54</v>
+      </c>
+      <c r="U3" s="57"/>
+      <c r="V3" s="57"/>
+      <c r="W3" s="57"/>
+      <c r="X3" s="57"/>
+      <c r="Y3" s="57"/>
+      <c r="Z3" s="57"/>
+      <c r="AA3" s="57"/>
+      <c r="AB3" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC3" s="45"/>
+      <c r="AD3" s="45"/>
+      <c r="AE3" s="57"/>
+      <c r="AF3" s="57"/>
+      <c r="AG3" s="57"/>
+      <c r="AH3" s="57"/>
+      <c r="AI3" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ3" s="45"/>
+      <c r="AK3" s="45"/>
+      <c r="AL3" s="41"/>
+      <c r="AM3" s="41"/>
+      <c r="AN3" s="41"/>
+      <c r="AO3" s="41"/>
+    </row>
+    <row r="4" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="54"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="45"/>
+      <c r="R4" s="45"/>
+      <c r="S4" s="45"/>
+      <c r="T4" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="U4" s="57"/>
+      <c r="V4" s="57"/>
+      <c r="W4" s="57"/>
+      <c r="X4" s="57"/>
+      <c r="Y4" s="57"/>
+      <c r="Z4" s="57"/>
+      <c r="AA4" s="57"/>
+      <c r="AB4" s="45"/>
+      <c r="AC4" s="45"/>
+      <c r="AD4" s="45"/>
+      <c r="AE4" s="57"/>
+      <c r="AF4" s="57"/>
+      <c r="AG4" s="57"/>
+      <c r="AH4" s="57"/>
+      <c r="AI4" s="45"/>
+      <c r="AJ4" s="45"/>
+      <c r="AK4" s="45"/>
+      <c r="AL4" s="41"/>
+      <c r="AM4" s="41"/>
+      <c r="AN4" s="41"/>
+      <c r="AO4" s="41"/>
+    </row>
+    <row r="5" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="U3" s="39"/>
-      <c r="V3" s="39"/>
-      <c r="W3" s="39"/>
-      <c r="X3" s="39"/>
-      <c r="Y3" s="39"/>
-      <c r="Z3" s="39"/>
-      <c r="AA3" s="39"/>
-      <c r="AB3" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC3" s="42"/>
-      <c r="AD3" s="42"/>
-      <c r="AE3" s="39"/>
-      <c r="AF3" s="39"/>
-      <c r="AG3" s="39"/>
-      <c r="AH3" s="39"/>
-      <c r="AI3" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="AJ3" s="42"/>
-      <c r="AK3" s="42"/>
-      <c r="AL3" s="43"/>
-      <c r="AM3" s="43"/>
-      <c r="AN3" s="43"/>
-      <c r="AO3" s="43"/>
-    </row>
-    <row r="4" spans="1:41" ht="20" customHeight="1">
-      <c r="A4" s="55"/>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="57"/>
-      <c r="O4" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="42"/>
-      <c r="R4" s="42"/>
-      <c r="S4" s="42"/>
-      <c r="T4" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="U4" s="39"/>
-      <c r="V4" s="39"/>
-      <c r="W4" s="39"/>
-      <c r="X4" s="39"/>
-      <c r="Y4" s="39"/>
-      <c r="Z4" s="39"/>
-      <c r="AA4" s="39"/>
-      <c r="AB4" s="42"/>
-      <c r="AC4" s="42"/>
-      <c r="AD4" s="42"/>
-      <c r="AE4" s="39"/>
-      <c r="AF4" s="39"/>
-      <c r="AG4" s="39"/>
-      <c r="AH4" s="39"/>
-      <c r="AI4" s="42"/>
-      <c r="AJ4" s="42"/>
-      <c r="AK4" s="42"/>
-      <c r="AL4" s="43"/>
-      <c r="AM4" s="43"/>
-      <c r="AN4" s="43"/>
-      <c r="AO4" s="43"/>
-    </row>
-    <row r="5" spans="1:41" ht="20" customHeight="1">
-      <c r="A5" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="66" t="s">
-        <v>56</v>
-      </c>
-      <c r="E5" s="67"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="40" t="s">
+      <c r="E5" s="68"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="59" t="s">
-        <v>53</v>
-      </c>
-      <c r="K5" s="59"/>
-      <c r="L5" s="59"/>
-      <c r="M5" s="59"/>
-      <c r="N5" s="59"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="66" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
       <c r="O5" s="11"/>
       <c r="P5" s="11"/>
       <c r="Q5" s="11"/>
@@ -3156,54 +3213,54 @@
       <c r="AN5" s="11"/>
       <c r="AO5" s="11"/>
     </row>
-    <row r="6" spans="1:41" ht="20" customHeight="1">
-      <c r="A6" s="47" t="s">
+    <row r="6" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="48"/>
-      <c r="O6" s="48"/>
-      <c r="P6" s="48"/>
-      <c r="Q6" s="48"/>
-      <c r="R6" s="48"/>
-      <c r="S6" s="48"/>
-      <c r="T6" s="48"/>
-      <c r="U6" s="48"/>
-      <c r="V6" s="48"/>
-      <c r="W6" s="48"/>
-      <c r="X6" s="48"/>
-      <c r="Y6" s="48"/>
-      <c r="Z6" s="48"/>
-      <c r="AA6" s="48"/>
-      <c r="AB6" s="48"/>
-      <c r="AC6" s="48"/>
-      <c r="AD6" s="48"/>
-      <c r="AE6" s="48"/>
-      <c r="AF6" s="48"/>
-      <c r="AG6" s="48"/>
-      <c r="AH6" s="48"/>
-      <c r="AI6" s="48"/>
-      <c r="AJ6" s="48"/>
-      <c r="AK6" s="48"/>
-      <c r="AL6" s="69"/>
-      <c r="AM6" s="40" t="s">
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="47"/>
+      <c r="P6" s="47"/>
+      <c r="Q6" s="47"/>
+      <c r="R6" s="47"/>
+      <c r="S6" s="47"/>
+      <c r="T6" s="47"/>
+      <c r="U6" s="47"/>
+      <c r="V6" s="47"/>
+      <c r="W6" s="47"/>
+      <c r="X6" s="47"/>
+      <c r="Y6" s="47"/>
+      <c r="Z6" s="47"/>
+      <c r="AA6" s="47"/>
+      <c r="AB6" s="47"/>
+      <c r="AC6" s="47"/>
+      <c r="AD6" s="47"/>
+      <c r="AE6" s="47"/>
+      <c r="AF6" s="47"/>
+      <c r="AG6" s="47"/>
+      <c r="AH6" s="47"/>
+      <c r="AI6" s="47"/>
+      <c r="AJ6" s="47"/>
+      <c r="AK6" s="47"/>
+      <c r="AL6" s="70"/>
+      <c r="AM6" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="AN6" s="40"/>
-      <c r="AO6" s="40"/>
-    </row>
-    <row r="7" spans="1:41" ht="20" customHeight="1">
+      <c r="AN6" s="39"/>
+      <c r="AO6" s="39"/>
+    </row>
+    <row r="7" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A7" s="21"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
@@ -3246,10 +3303,10 @@
       <c r="AN7" s="4"/>
       <c r="AO7" s="5"/>
     </row>
-    <row r="8" spans="1:41" ht="20" customHeight="1">
+    <row r="8" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A8" s="22"/>
       <c r="B8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -3290,7 +3347,7 @@
       <c r="AM8" s="6"/>
       <c r="AO8" s="7"/>
     </row>
-    <row r="9" spans="1:41" ht="20" customHeight="1">
+    <row r="9" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A9" s="22"/>
       <c r="B9" s="1"/>
       <c r="C9" s="60" t="s">
@@ -3334,7 +3391,7 @@
       <c r="AM9" s="6"/>
       <c r="AO9" s="7"/>
     </row>
-    <row r="10" spans="1:41" ht="20" customHeight="1">
+    <row r="10" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A10" s="22"/>
       <c r="B10" s="1"/>
       <c r="C10" s="63"/>
@@ -3376,7 +3433,7 @@
       <c r="AM10" s="6"/>
       <c r="AO10" s="7"/>
     </row>
-    <row r="11" spans="1:41" ht="20" customHeight="1">
+    <row r="11" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A11" s="22"/>
       <c r="B11" s="1"/>
       <c r="C11" s="22" t="s">
@@ -3386,7 +3443,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="14"/>
       <c r="G11" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -3422,7 +3479,7 @@
       <c r="AM11" s="6"/>
       <c r="AO11" s="7"/>
     </row>
-    <row r="12" spans="1:41" ht="20" customHeight="1">
+    <row r="12" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A12" s="22"/>
       <c r="B12" s="1"/>
       <c r="C12" s="22"/>
@@ -3449,11 +3506,11 @@
       <c r="AM12" s="6"/>
       <c r="AO12" s="7"/>
     </row>
-    <row r="13" spans="1:41" ht="20" customHeight="1">
+    <row r="13" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A13" s="22"/>
       <c r="B13" s="1"/>
       <c r="C13" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -3469,7 +3526,7 @@
       <c r="AM13" s="6"/>
       <c r="AO13" s="7"/>
     </row>
-    <row r="14" spans="1:41" ht="20" customHeight="1">
+    <row r="14" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A14" s="22"/>
       <c r="B14" s="1"/>
       <c r="C14" s="22"/>
@@ -3477,25 +3534,25 @@
       <c r="E14" s="1"/>
       <c r="F14" s="14"/>
       <c r="G14" s="1"/>
-      <c r="M14" s="59" t="s">
-        <v>42</v>
-      </c>
-      <c r="N14" s="59"/>
-      <c r="O14" s="59"/>
-      <c r="P14" s="59"/>
-      <c r="Q14" s="59"/>
-      <c r="R14" s="59"/>
-      <c r="S14" s="59"/>
-      <c r="T14" s="59"/>
-      <c r="U14" s="59"/>
-      <c r="V14" s="59"/>
-      <c r="W14" s="59"/>
-      <c r="X14" s="59"/>
-      <c r="Y14" s="59"/>
-      <c r="Z14" s="59"/>
-      <c r="AA14" s="59"/>
-      <c r="AB14" s="59"/>
-      <c r="AC14" s="59"/>
+      <c r="M14" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="N14" s="66"/>
+      <c r="O14" s="66"/>
+      <c r="P14" s="66"/>
+      <c r="Q14" s="66"/>
+      <c r="R14" s="66"/>
+      <c r="S14" s="66"/>
+      <c r="T14" s="66"/>
+      <c r="U14" s="66"/>
+      <c r="V14" s="66"/>
+      <c r="W14" s="66"/>
+      <c r="X14" s="66"/>
+      <c r="Y14" s="66"/>
+      <c r="Z14" s="66"/>
+      <c r="AA14" s="66"/>
+      <c r="AB14" s="66"/>
+      <c r="AC14" s="66"/>
       <c r="AF14"/>
       <c r="AG14"/>
       <c r="AH14"/>
@@ -3506,7 +3563,7 @@
       <c r="AM14" s="6"/>
       <c r="AO14" s="7"/>
     </row>
-    <row r="15" spans="1:41" ht="20" customHeight="1">
+    <row r="15" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A15" s="22"/>
       <c r="B15" s="1"/>
       <c r="C15" s="22" t="s">
@@ -3516,25 +3573,25 @@
       <c r="E15" s="1"/>
       <c r="F15" s="14"/>
       <c r="G15" s="1"/>
-      <c r="M15" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="N15" s="59"/>
-      <c r="O15" s="59"/>
-      <c r="P15" s="59"/>
-      <c r="Q15" s="59"/>
-      <c r="R15" s="59"/>
-      <c r="S15" s="59"/>
-      <c r="T15" s="59"/>
-      <c r="U15" s="59"/>
-      <c r="V15" s="59"/>
-      <c r="W15" s="59"/>
-      <c r="X15" s="59"/>
-      <c r="Y15" s="59"/>
-      <c r="Z15" s="59"/>
-      <c r="AA15" s="59"/>
-      <c r="AB15" s="59"/>
-      <c r="AC15" s="59"/>
+      <c r="M15" s="66" t="s">
+        <v>42</v>
+      </c>
+      <c r="N15" s="66"/>
+      <c r="O15" s="66"/>
+      <c r="P15" s="66"/>
+      <c r="Q15" s="66"/>
+      <c r="R15" s="66"/>
+      <c r="S15" s="66"/>
+      <c r="T15" s="66"/>
+      <c r="U15" s="66"/>
+      <c r="V15" s="66"/>
+      <c r="W15" s="66"/>
+      <c r="X15" s="66"/>
+      <c r="Y15" s="66"/>
+      <c r="Z15" s="66"/>
+      <c r="AA15" s="66"/>
+      <c r="AB15" s="66"/>
+      <c r="AC15" s="66"/>
       <c r="AF15"/>
       <c r="AG15"/>
       <c r="AH15"/>
@@ -3545,7 +3602,7 @@
       <c r="AM15" s="6"/>
       <c r="AO15" s="7"/>
     </row>
-    <row r="16" spans="1:41" ht="20" customHeight="1">
+    <row r="16" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A16" s="22"/>
       <c r="B16" s="1"/>
       <c r="C16" s="22"/>
@@ -3553,25 +3610,25 @@
       <c r="E16" s="1"/>
       <c r="F16" s="14"/>
       <c r="G16" s="1"/>
-      <c r="M16" s="59" t="s">
-        <v>44</v>
-      </c>
-      <c r="N16" s="59"/>
-      <c r="O16" s="59"/>
-      <c r="P16" s="59"/>
-      <c r="Q16" s="59"/>
-      <c r="R16" s="59"/>
-      <c r="S16" s="59"/>
-      <c r="T16" s="59"/>
-      <c r="U16" s="59"/>
-      <c r="V16" s="59"/>
-      <c r="W16" s="59"/>
-      <c r="X16" s="59"/>
-      <c r="Y16" s="59"/>
-      <c r="Z16" s="59"/>
-      <c r="AA16" s="59"/>
-      <c r="AB16" s="59"/>
-      <c r="AC16" s="59"/>
+      <c r="M16" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="N16" s="66"/>
+      <c r="O16" s="66"/>
+      <c r="P16" s="66"/>
+      <c r="Q16" s="66"/>
+      <c r="R16" s="66"/>
+      <c r="S16" s="66"/>
+      <c r="T16" s="66"/>
+      <c r="U16" s="66"/>
+      <c r="V16" s="66"/>
+      <c r="W16" s="66"/>
+      <c r="X16" s="66"/>
+      <c r="Y16" s="66"/>
+      <c r="Z16" s="66"/>
+      <c r="AA16" s="66"/>
+      <c r="AB16" s="66"/>
+      <c r="AC16" s="66"/>
       <c r="AF16"/>
       <c r="AG16"/>
       <c r="AH16"/>
@@ -3582,7 +3639,7 @@
       <c r="AM16" s="6"/>
       <c r="AO16" s="7"/>
     </row>
-    <row r="17" spans="1:41" ht="20" customHeight="1">
+    <row r="17" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A17" s="22"/>
       <c r="B17" s="1"/>
       <c r="C17" s="22" t="s">
@@ -3592,25 +3649,25 @@
       <c r="E17" s="1"/>
       <c r="F17" s="14"/>
       <c r="G17" s="1"/>
-      <c r="M17" s="59" t="s">
-        <v>45</v>
-      </c>
-      <c r="N17" s="59"/>
-      <c r="O17" s="59"/>
-      <c r="P17" s="59"/>
-      <c r="Q17" s="59"/>
-      <c r="R17" s="59"/>
-      <c r="S17" s="59"/>
-      <c r="T17" s="59"/>
-      <c r="U17" s="59"/>
-      <c r="V17" s="59"/>
-      <c r="W17" s="59"/>
-      <c r="X17" s="59"/>
-      <c r="Y17" s="59"/>
-      <c r="Z17" s="59"/>
-      <c r="AA17" s="59"/>
-      <c r="AB17" s="59"/>
-      <c r="AC17" s="59"/>
+      <c r="M17" s="66" t="s">
+        <v>44</v>
+      </c>
+      <c r="N17" s="66"/>
+      <c r="O17" s="66"/>
+      <c r="P17" s="66"/>
+      <c r="Q17" s="66"/>
+      <c r="R17" s="66"/>
+      <c r="S17" s="66"/>
+      <c r="T17" s="66"/>
+      <c r="U17" s="66"/>
+      <c r="V17" s="66"/>
+      <c r="W17" s="66"/>
+      <c r="X17" s="66"/>
+      <c r="Y17" s="66"/>
+      <c r="Z17" s="66"/>
+      <c r="AA17" s="66"/>
+      <c r="AB17" s="66"/>
+      <c r="AC17" s="66"/>
       <c r="AF17"/>
       <c r="AG17"/>
       <c r="AH17"/>
@@ -3621,7 +3678,7 @@
       <c r="AM17" s="6"/>
       <c r="AO17" s="7"/>
     </row>
-    <row r="18" spans="1:41" ht="20" customHeight="1">
+    <row r="18" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A18" s="22"/>
       <c r="B18" s="1"/>
       <c r="C18" s="22"/>
@@ -3629,25 +3686,25 @@
       <c r="E18" s="1"/>
       <c r="F18" s="14"/>
       <c r="G18" s="1"/>
-      <c r="M18" s="59" t="s">
-        <v>46</v>
-      </c>
-      <c r="N18" s="59"/>
-      <c r="O18" s="59"/>
-      <c r="P18" s="59"/>
-      <c r="Q18" s="59"/>
-      <c r="R18" s="59"/>
-      <c r="S18" s="59"/>
-      <c r="T18" s="59"/>
-      <c r="U18" s="59"/>
-      <c r="V18" s="59"/>
-      <c r="W18" s="59"/>
-      <c r="X18" s="59"/>
-      <c r="Y18" s="59"/>
-      <c r="Z18" s="59"/>
-      <c r="AA18" s="59"/>
-      <c r="AB18" s="59"/>
-      <c r="AC18" s="59"/>
+      <c r="M18" s="66" t="s">
+        <v>45</v>
+      </c>
+      <c r="N18" s="66"/>
+      <c r="O18" s="66"/>
+      <c r="P18" s="66"/>
+      <c r="Q18" s="66"/>
+      <c r="R18" s="66"/>
+      <c r="S18" s="66"/>
+      <c r="T18" s="66"/>
+      <c r="U18" s="66"/>
+      <c r="V18" s="66"/>
+      <c r="W18" s="66"/>
+      <c r="X18" s="66"/>
+      <c r="Y18" s="66"/>
+      <c r="Z18" s="66"/>
+      <c r="AA18" s="66"/>
+      <c r="AB18" s="66"/>
+      <c r="AC18" s="66"/>
       <c r="AF18"/>
       <c r="AG18"/>
       <c r="AH18"/>
@@ -3658,7 +3715,7 @@
       <c r="AM18" s="6"/>
       <c r="AO18" s="7"/>
     </row>
-    <row r="19" spans="1:41" ht="20" customHeight="1">
+    <row r="19" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A19" s="22"/>
       <c r="B19" s="1"/>
       <c r="C19" s="22"/>
@@ -3666,25 +3723,25 @@
       <c r="E19" s="1"/>
       <c r="F19" s="14"/>
       <c r="G19" s="1"/>
-      <c r="M19" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="N19" s="59"/>
-      <c r="O19" s="59"/>
-      <c r="P19" s="59"/>
-      <c r="Q19" s="59"/>
-      <c r="R19" s="59"/>
-      <c r="S19" s="59"/>
-      <c r="T19" s="59"/>
-      <c r="U19" s="59"/>
-      <c r="V19" s="59"/>
-      <c r="W19" s="59"/>
-      <c r="X19" s="59"/>
-      <c r="Y19" s="59"/>
-      <c r="Z19" s="59"/>
-      <c r="AA19" s="59"/>
-      <c r="AB19" s="59"/>
-      <c r="AC19" s="59"/>
+      <c r="M19" s="66" t="s">
+        <v>46</v>
+      </c>
+      <c r="N19" s="66"/>
+      <c r="O19" s="66"/>
+      <c r="P19" s="66"/>
+      <c r="Q19" s="66"/>
+      <c r="R19" s="66"/>
+      <c r="S19" s="66"/>
+      <c r="T19" s="66"/>
+      <c r="U19" s="66"/>
+      <c r="V19" s="66"/>
+      <c r="W19" s="66"/>
+      <c r="X19" s="66"/>
+      <c r="Y19" s="66"/>
+      <c r="Z19" s="66"/>
+      <c r="AA19" s="66"/>
+      <c r="AB19" s="66"/>
+      <c r="AC19" s="66"/>
       <c r="AF19"/>
       <c r="AG19"/>
       <c r="AH19"/>
@@ -3695,7 +3752,7 @@
       <c r="AM19" s="6"/>
       <c r="AO19" s="7"/>
     </row>
-    <row r="20" spans="1:41" ht="20" customHeight="1">
+    <row r="20" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A20" s="22"/>
       <c r="B20" s="1"/>
       <c r="C20" s="22"/>
@@ -3703,25 +3760,25 @@
       <c r="E20" s="1"/>
       <c r="F20" s="14"/>
       <c r="G20" s="1"/>
-      <c r="M20" s="59" t="s">
-        <v>48</v>
-      </c>
-      <c r="N20" s="59"/>
-      <c r="O20" s="59"/>
-      <c r="P20" s="59"/>
-      <c r="Q20" s="59"/>
-      <c r="R20" s="59"/>
-      <c r="S20" s="59"/>
-      <c r="T20" s="59"/>
-      <c r="U20" s="59"/>
-      <c r="V20" s="59"/>
-      <c r="W20" s="59"/>
-      <c r="X20" s="59"/>
-      <c r="Y20" s="59"/>
-      <c r="Z20" s="59"/>
-      <c r="AA20" s="59"/>
-      <c r="AB20" s="59"/>
-      <c r="AC20" s="59"/>
+      <c r="M20" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="N20" s="66"/>
+      <c r="O20" s="66"/>
+      <c r="P20" s="66"/>
+      <c r="Q20" s="66"/>
+      <c r="R20" s="66"/>
+      <c r="S20" s="66"/>
+      <c r="T20" s="66"/>
+      <c r="U20" s="66"/>
+      <c r="V20" s="66"/>
+      <c r="W20" s="66"/>
+      <c r="X20" s="66"/>
+      <c r="Y20" s="66"/>
+      <c r="Z20" s="66"/>
+      <c r="AA20" s="66"/>
+      <c r="AB20" s="66"/>
+      <c r="AC20" s="66"/>
       <c r="AF20"/>
       <c r="AG20"/>
       <c r="AH20"/>
@@ -3732,7 +3789,7 @@
       <c r="AM20" s="6"/>
       <c r="AO20" s="7"/>
     </row>
-    <row r="21" spans="1:41" ht="20" customHeight="1">
+    <row r="21" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A21" s="22"/>
       <c r="B21" s="1"/>
       <c r="C21" s="22"/>
@@ -3740,25 +3797,25 @@
       <c r="E21" s="1"/>
       <c r="F21" s="14"/>
       <c r="G21" s="1"/>
-      <c r="M21" s="59" t="s">
-        <v>49</v>
-      </c>
-      <c r="N21" s="59"/>
-      <c r="O21" s="59"/>
-      <c r="P21" s="59"/>
-      <c r="Q21" s="59"/>
-      <c r="R21" s="59"/>
-      <c r="S21" s="59"/>
-      <c r="T21" s="59"/>
-      <c r="U21" s="59"/>
-      <c r="V21" s="59"/>
-      <c r="W21" s="59"/>
-      <c r="X21" s="59"/>
-      <c r="Y21" s="59"/>
-      <c r="Z21" s="59"/>
-      <c r="AA21" s="59"/>
-      <c r="AB21" s="59"/>
-      <c r="AC21" s="59"/>
+      <c r="M21" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="N21" s="66"/>
+      <c r="O21" s="66"/>
+      <c r="P21" s="66"/>
+      <c r="Q21" s="66"/>
+      <c r="R21" s="66"/>
+      <c r="S21" s="66"/>
+      <c r="T21" s="66"/>
+      <c r="U21" s="66"/>
+      <c r="V21" s="66"/>
+      <c r="W21" s="66"/>
+      <c r="X21" s="66"/>
+      <c r="Y21" s="66"/>
+      <c r="Z21" s="66"/>
+      <c r="AA21" s="66"/>
+      <c r="AB21" s="66"/>
+      <c r="AC21" s="66"/>
       <c r="AF21"/>
       <c r="AG21"/>
       <c r="AH21"/>
@@ -3769,7 +3826,7 @@
       <c r="AM21" s="6"/>
       <c r="AO21" s="7"/>
     </row>
-    <row r="22" spans="1:41" ht="20" customHeight="1">
+    <row r="22" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A22" s="22"/>
       <c r="B22" s="1"/>
       <c r="C22" s="22"/>
@@ -3777,25 +3834,25 @@
       <c r="E22" s="1"/>
       <c r="F22" s="14"/>
       <c r="G22" s="1"/>
-      <c r="M22" s="59" t="s">
-        <v>50</v>
-      </c>
-      <c r="N22" s="59"/>
-      <c r="O22" s="59"/>
-      <c r="P22" s="59"/>
-      <c r="Q22" s="59"/>
-      <c r="R22" s="59"/>
-      <c r="S22" s="59"/>
-      <c r="T22" s="59"/>
-      <c r="U22" s="59"/>
-      <c r="V22" s="59"/>
-      <c r="W22" s="59"/>
-      <c r="X22" s="59"/>
-      <c r="Y22" s="59"/>
-      <c r="Z22" s="59"/>
-      <c r="AA22" s="59"/>
-      <c r="AB22" s="59"/>
-      <c r="AC22" s="59"/>
+      <c r="M22" s="66" t="s">
+        <v>49</v>
+      </c>
+      <c r="N22" s="66"/>
+      <c r="O22" s="66"/>
+      <c r="P22" s="66"/>
+      <c r="Q22" s="66"/>
+      <c r="R22" s="66"/>
+      <c r="S22" s="66"/>
+      <c r="T22" s="66"/>
+      <c r="U22" s="66"/>
+      <c r="V22" s="66"/>
+      <c r="W22" s="66"/>
+      <c r="X22" s="66"/>
+      <c r="Y22" s="66"/>
+      <c r="Z22" s="66"/>
+      <c r="AA22" s="66"/>
+      <c r="AB22" s="66"/>
+      <c r="AC22" s="66"/>
       <c r="AF22"/>
       <c r="AG22"/>
       <c r="AH22"/>
@@ -3806,7 +3863,7 @@
       <c r="AM22" s="6"/>
       <c r="AO22" s="7"/>
     </row>
-    <row r="23" spans="1:41" ht="20" customHeight="1">
+    <row r="23" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A23" s="22"/>
       <c r="B23" s="1"/>
       <c r="C23" s="22"/>
@@ -3814,25 +3871,25 @@
       <c r="E23" s="1"/>
       <c r="F23" s="14"/>
       <c r="G23" s="1"/>
-      <c r="M23" s="59" t="s">
-        <v>51</v>
-      </c>
-      <c r="N23" s="59"/>
-      <c r="O23" s="59"/>
-      <c r="P23" s="59"/>
-      <c r="Q23" s="59"/>
-      <c r="R23" s="59"/>
-      <c r="S23" s="59"/>
-      <c r="T23" s="59"/>
-      <c r="U23" s="59"/>
-      <c r="V23" s="59"/>
-      <c r="W23" s="59"/>
-      <c r="X23" s="59"/>
-      <c r="Y23" s="59"/>
-      <c r="Z23" s="59"/>
-      <c r="AA23" s="59"/>
-      <c r="AB23" s="59"/>
-      <c r="AC23" s="59"/>
+      <c r="M23" s="66" t="s">
+        <v>50</v>
+      </c>
+      <c r="N23" s="66"/>
+      <c r="O23" s="66"/>
+      <c r="P23" s="66"/>
+      <c r="Q23" s="66"/>
+      <c r="R23" s="66"/>
+      <c r="S23" s="66"/>
+      <c r="T23" s="66"/>
+      <c r="U23" s="66"/>
+      <c r="V23" s="66"/>
+      <c r="W23" s="66"/>
+      <c r="X23" s="66"/>
+      <c r="Y23" s="66"/>
+      <c r="Z23" s="66"/>
+      <c r="AA23" s="66"/>
+      <c r="AB23" s="66"/>
+      <c r="AC23" s="66"/>
       <c r="AF23"/>
       <c r="AG23"/>
       <c r="AH23"/>
@@ -3843,7 +3900,7 @@
       <c r="AM23" s="6"/>
       <c r="AO23" s="7"/>
     </row>
-    <row r="24" spans="1:41" ht="20" customHeight="1">
+    <row r="24" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A24" s="22"/>
       <c r="B24" s="1"/>
       <c r="C24" s="22"/>
@@ -3861,7 +3918,7 @@
       <c r="AM24" s="6"/>
       <c r="AO24" s="7"/>
     </row>
-    <row r="25" spans="1:41" ht="20" customHeight="1">
+    <row r="25" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A25" s="22"/>
       <c r="B25" s="1"/>
       <c r="C25" s="22"/>
@@ -3879,7 +3936,7 @@
       <c r="AM25" s="6"/>
       <c r="AO25" s="7"/>
     </row>
-    <row r="26" spans="1:41" ht="20" customHeight="1">
+    <row r="26" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A26" s="22"/>
       <c r="B26" s="1"/>
       <c r="C26" s="22"/>
@@ -3900,7 +3957,7 @@
       <c r="AM26" s="6"/>
       <c r="AO26" s="7"/>
     </row>
-    <row r="27" spans="1:41" ht="20" customHeight="1">
+    <row r="27" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A27" s="22"/>
       <c r="B27" s="1"/>
       <c r="C27" s="22"/>
@@ -3925,7 +3982,7 @@
       <c r="AM27" s="6"/>
       <c r="AO27" s="7"/>
     </row>
-    <row r="28" spans="1:41" ht="20" customHeight="1">
+    <row r="28" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A28" s="22"/>
       <c r="B28" s="1"/>
       <c r="C28" s="22"/>
@@ -3950,7 +4007,7 @@
       <c r="AM28" s="6"/>
       <c r="AO28" s="7"/>
     </row>
-    <row r="29" spans="1:41" ht="20" customHeight="1">
+    <row r="29" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A29" s="22"/>
       <c r="B29" s="1"/>
       <c r="C29" s="22"/>
@@ -3992,7 +4049,7 @@
       <c r="AM29" s="6"/>
       <c r="AO29" s="7"/>
     </row>
-    <row r="30" spans="1:41" ht="20" customHeight="1">
+    <row r="30" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A30" s="22"/>
       <c r="B30" s="26"/>
       <c r="C30" s="33"/>
@@ -4034,7 +4091,7 @@
       <c r="AM30" s="6"/>
       <c r="AO30" s="7"/>
     </row>
-    <row r="31" spans="1:41" ht="20" customHeight="1">
+    <row r="31" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A31" s="22"/>
       <c r="B31" s="26"/>
       <c r="C31" s="26"/>
@@ -4076,10 +4133,10 @@
       <c r="AM31" s="6"/>
       <c r="AO31" s="7"/>
     </row>
-    <row r="32" spans="1:41" ht="20" customHeight="1">
+    <row r="32" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A32" s="22"/>
       <c r="B32" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -4120,7 +4177,7 @@
       <c r="AM32" s="6"/>
       <c r="AO32" s="7"/>
     </row>
-    <row r="33" spans="1:41" ht="20" customHeight="1">
+    <row r="33" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A33" s="22"/>
       <c r="B33" s="1"/>
       <c r="C33" s="60" t="s">
@@ -4164,7 +4221,7 @@
       <c r="AM33" s="6"/>
       <c r="AO33" s="7"/>
     </row>
-    <row r="34" spans="1:41" ht="20" customHeight="1">
+    <row r="34" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A34" s="22"/>
       <c r="B34" s="1"/>
       <c r="C34" s="63"/>
@@ -4206,7 +4263,7 @@
       <c r="AM34" s="6"/>
       <c r="AO34" s="7"/>
     </row>
-    <row r="35" spans="1:41" ht="20" customHeight="1">
+    <row r="35" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A35" s="22"/>
       <c r="B35" s="1"/>
       <c r="C35" s="22" t="s">
@@ -4216,7 +4273,7 @@
       <c r="E35" s="1"/>
       <c r="F35" s="14"/>
       <c r="G35" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
@@ -4252,7 +4309,7 @@
       <c r="AM35" s="6"/>
       <c r="AO35" s="7"/>
     </row>
-    <row r="36" spans="1:41" ht="20" customHeight="1">
+    <row r="36" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A36" s="22"/>
       <c r="B36" s="1"/>
       <c r="C36" s="22"/>
@@ -4280,11 +4337,11 @@
       <c r="AM36" s="6"/>
       <c r="AO36" s="7"/>
     </row>
-    <row r="37" spans="1:41" ht="20" customHeight="1">
+    <row r="37" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A37" s="22"/>
       <c r="B37" s="1"/>
       <c r="C37" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -4300,7 +4357,7 @@
       <c r="AM37" s="6"/>
       <c r="AO37" s="7"/>
     </row>
-    <row r="38" spans="1:41" ht="20" customHeight="1">
+    <row r="38" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A38" s="22"/>
       <c r="B38" s="1"/>
       <c r="C38" s="22"/>
@@ -4308,25 +4365,25 @@
       <c r="E38" s="1"/>
       <c r="F38" s="14"/>
       <c r="G38" s="1"/>
-      <c r="M38" s="59" t="s">
-        <v>42</v>
-      </c>
-      <c r="N38" s="59"/>
-      <c r="O38" s="59"/>
-      <c r="P38" s="59"/>
-      <c r="Q38" s="59"/>
-      <c r="R38" s="59"/>
-      <c r="S38" s="59"/>
-      <c r="T38" s="59"/>
-      <c r="U38" s="59"/>
-      <c r="V38" s="59"/>
-      <c r="W38" s="59"/>
-      <c r="X38" s="59"/>
-      <c r="Y38" s="59"/>
-      <c r="Z38" s="59"/>
-      <c r="AA38" s="59"/>
-      <c r="AB38" s="59"/>
-      <c r="AC38" s="59"/>
+      <c r="M38" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="N38" s="66"/>
+      <c r="O38" s="66"/>
+      <c r="P38" s="66"/>
+      <c r="Q38" s="66"/>
+      <c r="R38" s="66"/>
+      <c r="S38" s="66"/>
+      <c r="T38" s="66"/>
+      <c r="U38" s="66"/>
+      <c r="V38" s="66"/>
+      <c r="W38" s="66"/>
+      <c r="X38" s="66"/>
+      <c r="Y38" s="66"/>
+      <c r="Z38" s="66"/>
+      <c r="AA38" s="66"/>
+      <c r="AB38" s="66"/>
+      <c r="AC38" s="66"/>
       <c r="AF38"/>
       <c r="AG38"/>
       <c r="AH38"/>
@@ -4337,7 +4394,7 @@
       <c r="AM38" s="6"/>
       <c r="AO38" s="7"/>
     </row>
-    <row r="39" spans="1:41" ht="20" customHeight="1">
+    <row r="39" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A39" s="22"/>
       <c r="B39" s="1"/>
       <c r="C39" s="22" t="s">
@@ -4347,25 +4404,25 @@
       <c r="E39" s="1"/>
       <c r="F39" s="14"/>
       <c r="G39" s="1"/>
-      <c r="M39" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="N39" s="59"/>
-      <c r="O39" s="59"/>
-      <c r="P39" s="59"/>
-      <c r="Q39" s="59"/>
-      <c r="R39" s="59"/>
-      <c r="S39" s="59"/>
-      <c r="T39" s="59"/>
-      <c r="U39" s="59"/>
-      <c r="V39" s="59"/>
-      <c r="W39" s="59"/>
-      <c r="X39" s="59"/>
-      <c r="Y39" s="59"/>
-      <c r="Z39" s="59"/>
-      <c r="AA39" s="59"/>
-      <c r="AB39" s="59"/>
-      <c r="AC39" s="59"/>
+      <c r="M39" s="66" t="s">
+        <v>42</v>
+      </c>
+      <c r="N39" s="66"/>
+      <c r="O39" s="66"/>
+      <c r="P39" s="66"/>
+      <c r="Q39" s="66"/>
+      <c r="R39" s="66"/>
+      <c r="S39" s="66"/>
+      <c r="T39" s="66"/>
+      <c r="U39" s="66"/>
+      <c r="V39" s="66"/>
+      <c r="W39" s="66"/>
+      <c r="X39" s="66"/>
+      <c r="Y39" s="66"/>
+      <c r="Z39" s="66"/>
+      <c r="AA39" s="66"/>
+      <c r="AB39" s="66"/>
+      <c r="AC39" s="66"/>
       <c r="AF39"/>
       <c r="AG39"/>
       <c r="AH39"/>
@@ -4376,7 +4433,7 @@
       <c r="AM39" s="6"/>
       <c r="AO39" s="7"/>
     </row>
-    <row r="40" spans="1:41" ht="20" customHeight="1">
+    <row r="40" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A40" s="22"/>
       <c r="B40" s="1"/>
       <c r="C40" s="22"/>
@@ -4384,25 +4441,25 @@
       <c r="E40" s="1"/>
       <c r="F40" s="14"/>
       <c r="G40" s="1"/>
-      <c r="M40" s="59" t="s">
-        <v>44</v>
-      </c>
-      <c r="N40" s="59"/>
-      <c r="O40" s="59"/>
-      <c r="P40" s="59"/>
-      <c r="Q40" s="59"/>
-      <c r="R40" s="59"/>
-      <c r="S40" s="59"/>
-      <c r="T40" s="59"/>
-      <c r="U40" s="59"/>
-      <c r="V40" s="59"/>
-      <c r="W40" s="59"/>
-      <c r="X40" s="59"/>
-      <c r="Y40" s="59"/>
-      <c r="Z40" s="59"/>
-      <c r="AA40" s="59"/>
-      <c r="AB40" s="59"/>
-      <c r="AC40" s="59"/>
+      <c r="M40" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="N40" s="66"/>
+      <c r="O40" s="66"/>
+      <c r="P40" s="66"/>
+      <c r="Q40" s="66"/>
+      <c r="R40" s="66"/>
+      <c r="S40" s="66"/>
+      <c r="T40" s="66"/>
+      <c r="U40" s="66"/>
+      <c r="V40" s="66"/>
+      <c r="W40" s="66"/>
+      <c r="X40" s="66"/>
+      <c r="Y40" s="66"/>
+      <c r="Z40" s="66"/>
+      <c r="AA40" s="66"/>
+      <c r="AB40" s="66"/>
+      <c r="AC40" s="66"/>
       <c r="AF40"/>
       <c r="AG40"/>
       <c r="AH40"/>
@@ -4413,7 +4470,7 @@
       <c r="AM40" s="6"/>
       <c r="AO40" s="7"/>
     </row>
-    <row r="41" spans="1:41" ht="20" customHeight="1">
+    <row r="41" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A41" s="22"/>
       <c r="B41" s="1"/>
       <c r="C41" s="22" t="s">
@@ -4423,25 +4480,25 @@
       <c r="E41" s="1"/>
       <c r="F41" s="14"/>
       <c r="G41" s="1"/>
-      <c r="M41" s="59" t="s">
-        <v>45</v>
-      </c>
-      <c r="N41" s="59"/>
-      <c r="O41" s="59"/>
-      <c r="P41" s="59"/>
-      <c r="Q41" s="59"/>
-      <c r="R41" s="59"/>
-      <c r="S41" s="59"/>
-      <c r="T41" s="59"/>
-      <c r="U41" s="59"/>
-      <c r="V41" s="59"/>
-      <c r="W41" s="59"/>
-      <c r="X41" s="59"/>
-      <c r="Y41" s="59"/>
-      <c r="Z41" s="59"/>
-      <c r="AA41" s="59"/>
-      <c r="AB41" s="59"/>
-      <c r="AC41" s="59"/>
+      <c r="M41" s="66" t="s">
+        <v>44</v>
+      </c>
+      <c r="N41" s="66"/>
+      <c r="O41" s="66"/>
+      <c r="P41" s="66"/>
+      <c r="Q41" s="66"/>
+      <c r="R41" s="66"/>
+      <c r="S41" s="66"/>
+      <c r="T41" s="66"/>
+      <c r="U41" s="66"/>
+      <c r="V41" s="66"/>
+      <c r="W41" s="66"/>
+      <c r="X41" s="66"/>
+      <c r="Y41" s="66"/>
+      <c r="Z41" s="66"/>
+      <c r="AA41" s="66"/>
+      <c r="AB41" s="66"/>
+      <c r="AC41" s="66"/>
       <c r="AF41"/>
       <c r="AG41"/>
       <c r="AH41"/>
@@ -4452,7 +4509,7 @@
       <c r="AM41" s="6"/>
       <c r="AO41" s="7"/>
     </row>
-    <row r="42" spans="1:41" ht="20" customHeight="1">
+    <row r="42" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A42" s="22"/>
       <c r="B42" s="1"/>
       <c r="C42" s="22"/>
@@ -4460,25 +4517,25 @@
       <c r="E42" s="1"/>
       <c r="F42" s="14"/>
       <c r="G42" s="1"/>
-      <c r="M42" s="59" t="s">
-        <v>46</v>
-      </c>
-      <c r="N42" s="59"/>
-      <c r="O42" s="59"/>
-      <c r="P42" s="59"/>
-      <c r="Q42" s="59"/>
-      <c r="R42" s="59"/>
-      <c r="S42" s="59"/>
-      <c r="T42" s="59"/>
-      <c r="U42" s="59"/>
-      <c r="V42" s="59"/>
-      <c r="W42" s="59"/>
-      <c r="X42" s="59"/>
-      <c r="Y42" s="59"/>
-      <c r="Z42" s="59"/>
-      <c r="AA42" s="59"/>
-      <c r="AB42" s="59"/>
-      <c r="AC42" s="59"/>
+      <c r="M42" s="66" t="s">
+        <v>45</v>
+      </c>
+      <c r="N42" s="66"/>
+      <c r="O42" s="66"/>
+      <c r="P42" s="66"/>
+      <c r="Q42" s="66"/>
+      <c r="R42" s="66"/>
+      <c r="S42" s="66"/>
+      <c r="T42" s="66"/>
+      <c r="U42" s="66"/>
+      <c r="V42" s="66"/>
+      <c r="W42" s="66"/>
+      <c r="X42" s="66"/>
+      <c r="Y42" s="66"/>
+      <c r="Z42" s="66"/>
+      <c r="AA42" s="66"/>
+      <c r="AB42" s="66"/>
+      <c r="AC42" s="66"/>
       <c r="AF42"/>
       <c r="AG42"/>
       <c r="AH42"/>
@@ -4489,7 +4546,7 @@
       <c r="AM42" s="6"/>
       <c r="AO42" s="7"/>
     </row>
-    <row r="43" spans="1:41" ht="20" customHeight="1">
+    <row r="43" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A43" s="22"/>
       <c r="B43" s="1"/>
       <c r="C43" s="22"/>
@@ -4497,25 +4554,25 @@
       <c r="E43" s="1"/>
       <c r="F43" s="14"/>
       <c r="G43" s="1"/>
-      <c r="M43" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="N43" s="59"/>
-      <c r="O43" s="59"/>
-      <c r="P43" s="59"/>
-      <c r="Q43" s="59"/>
-      <c r="R43" s="59"/>
-      <c r="S43" s="59"/>
-      <c r="T43" s="59"/>
-      <c r="U43" s="59"/>
-      <c r="V43" s="59"/>
-      <c r="W43" s="59"/>
-      <c r="X43" s="59"/>
-      <c r="Y43" s="59"/>
-      <c r="Z43" s="59"/>
-      <c r="AA43" s="59"/>
-      <c r="AB43" s="59"/>
-      <c r="AC43" s="59"/>
+      <c r="M43" s="66" t="s">
+        <v>46</v>
+      </c>
+      <c r="N43" s="66"/>
+      <c r="O43" s="66"/>
+      <c r="P43" s="66"/>
+      <c r="Q43" s="66"/>
+      <c r="R43" s="66"/>
+      <c r="S43" s="66"/>
+      <c r="T43" s="66"/>
+      <c r="U43" s="66"/>
+      <c r="V43" s="66"/>
+      <c r="W43" s="66"/>
+      <c r="X43" s="66"/>
+      <c r="Y43" s="66"/>
+      <c r="Z43" s="66"/>
+      <c r="AA43" s="66"/>
+      <c r="AB43" s="66"/>
+      <c r="AC43" s="66"/>
       <c r="AF43"/>
       <c r="AG43"/>
       <c r="AH43"/>
@@ -4526,7 +4583,7 @@
       <c r="AM43" s="6"/>
       <c r="AO43" s="7"/>
     </row>
-    <row r="44" spans="1:41" ht="20" customHeight="1">
+    <row r="44" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A44" s="22"/>
       <c r="B44" s="1"/>
       <c r="C44" s="22"/>
@@ -4534,25 +4591,25 @@
       <c r="E44" s="1"/>
       <c r="F44" s="14"/>
       <c r="G44" s="1"/>
-      <c r="M44" s="59" t="s">
-        <v>48</v>
-      </c>
-      <c r="N44" s="59"/>
-      <c r="O44" s="59"/>
-      <c r="P44" s="59"/>
-      <c r="Q44" s="59"/>
-      <c r="R44" s="59"/>
-      <c r="S44" s="59"/>
-      <c r="T44" s="59"/>
-      <c r="U44" s="59"/>
-      <c r="V44" s="59"/>
-      <c r="W44" s="59"/>
-      <c r="X44" s="59"/>
-      <c r="Y44" s="59"/>
-      <c r="Z44" s="59"/>
-      <c r="AA44" s="59"/>
-      <c r="AB44" s="59"/>
-      <c r="AC44" s="59"/>
+      <c r="M44" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="N44" s="66"/>
+      <c r="O44" s="66"/>
+      <c r="P44" s="66"/>
+      <c r="Q44" s="66"/>
+      <c r="R44" s="66"/>
+      <c r="S44" s="66"/>
+      <c r="T44" s="66"/>
+      <c r="U44" s="66"/>
+      <c r="V44" s="66"/>
+      <c r="W44" s="66"/>
+      <c r="X44" s="66"/>
+      <c r="Y44" s="66"/>
+      <c r="Z44" s="66"/>
+      <c r="AA44" s="66"/>
+      <c r="AB44" s="66"/>
+      <c r="AC44" s="66"/>
       <c r="AF44"/>
       <c r="AG44"/>
       <c r="AH44"/>
@@ -4563,7 +4620,7 @@
       <c r="AM44" s="6"/>
       <c r="AO44" s="7"/>
     </row>
-    <row r="45" spans="1:41" ht="20" customHeight="1">
+    <row r="45" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A45" s="22"/>
       <c r="B45" s="1"/>
       <c r="C45" s="22"/>
@@ -4571,25 +4628,25 @@
       <c r="E45" s="1"/>
       <c r="F45" s="14"/>
       <c r="G45" s="1"/>
-      <c r="M45" s="59" t="s">
-        <v>49</v>
-      </c>
-      <c r="N45" s="59"/>
-      <c r="O45" s="59"/>
-      <c r="P45" s="59"/>
-      <c r="Q45" s="59"/>
-      <c r="R45" s="59"/>
-      <c r="S45" s="59"/>
-      <c r="T45" s="59"/>
-      <c r="U45" s="59"/>
-      <c r="V45" s="59"/>
-      <c r="W45" s="59"/>
-      <c r="X45" s="59"/>
-      <c r="Y45" s="59"/>
-      <c r="Z45" s="59"/>
-      <c r="AA45" s="59"/>
-      <c r="AB45" s="59"/>
-      <c r="AC45" s="59"/>
+      <c r="M45" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="N45" s="66"/>
+      <c r="O45" s="66"/>
+      <c r="P45" s="66"/>
+      <c r="Q45" s="66"/>
+      <c r="R45" s="66"/>
+      <c r="S45" s="66"/>
+      <c r="T45" s="66"/>
+      <c r="U45" s="66"/>
+      <c r="V45" s="66"/>
+      <c r="W45" s="66"/>
+      <c r="X45" s="66"/>
+      <c r="Y45" s="66"/>
+      <c r="Z45" s="66"/>
+      <c r="AA45" s="66"/>
+      <c r="AB45" s="66"/>
+      <c r="AC45" s="66"/>
       <c r="AF45"/>
       <c r="AG45"/>
       <c r="AH45"/>
@@ -4600,7 +4657,7 @@
       <c r="AM45" s="6"/>
       <c r="AO45" s="7"/>
     </row>
-    <row r="46" spans="1:41" ht="20" customHeight="1">
+    <row r="46" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A46" s="22"/>
       <c r="B46" s="1"/>
       <c r="C46" s="22"/>
@@ -4608,25 +4665,25 @@
       <c r="E46" s="1"/>
       <c r="F46" s="14"/>
       <c r="G46" s="1"/>
-      <c r="M46" s="59" t="s">
-        <v>50</v>
-      </c>
-      <c r="N46" s="59"/>
-      <c r="O46" s="59"/>
-      <c r="P46" s="59"/>
-      <c r="Q46" s="59"/>
-      <c r="R46" s="59"/>
-      <c r="S46" s="59"/>
-      <c r="T46" s="59"/>
-      <c r="U46" s="59"/>
-      <c r="V46" s="59"/>
-      <c r="W46" s="59"/>
-      <c r="X46" s="59"/>
-      <c r="Y46" s="59"/>
-      <c r="Z46" s="59"/>
-      <c r="AA46" s="59"/>
-      <c r="AB46" s="59"/>
-      <c r="AC46" s="59"/>
+      <c r="M46" s="66" t="s">
+        <v>49</v>
+      </c>
+      <c r="N46" s="66"/>
+      <c r="O46" s="66"/>
+      <c r="P46" s="66"/>
+      <c r="Q46" s="66"/>
+      <c r="R46" s="66"/>
+      <c r="S46" s="66"/>
+      <c r="T46" s="66"/>
+      <c r="U46" s="66"/>
+      <c r="V46" s="66"/>
+      <c r="W46" s="66"/>
+      <c r="X46" s="66"/>
+      <c r="Y46" s="66"/>
+      <c r="Z46" s="66"/>
+      <c r="AA46" s="66"/>
+      <c r="AB46" s="66"/>
+      <c r="AC46" s="66"/>
       <c r="AF46"/>
       <c r="AG46"/>
       <c r="AH46"/>
@@ -4637,7 +4694,7 @@
       <c r="AM46" s="6"/>
       <c r="AO46" s="7"/>
     </row>
-    <row r="47" spans="1:41" ht="20" customHeight="1">
+    <row r="47" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A47" s="22"/>
       <c r="B47" s="1"/>
       <c r="C47" s="22"/>
@@ -4645,25 +4702,25 @@
       <c r="E47" s="1"/>
       <c r="F47" s="14"/>
       <c r="G47" s="1"/>
-      <c r="M47" s="59" t="s">
-        <v>51</v>
-      </c>
-      <c r="N47" s="59"/>
-      <c r="O47" s="59"/>
-      <c r="P47" s="59"/>
-      <c r="Q47" s="59"/>
-      <c r="R47" s="59"/>
-      <c r="S47" s="59"/>
-      <c r="T47" s="59"/>
-      <c r="U47" s="59"/>
-      <c r="V47" s="59"/>
-      <c r="W47" s="59"/>
-      <c r="X47" s="59"/>
-      <c r="Y47" s="59"/>
-      <c r="Z47" s="59"/>
-      <c r="AA47" s="59"/>
-      <c r="AB47" s="59"/>
-      <c r="AC47" s="59"/>
+      <c r="M47" s="66" t="s">
+        <v>50</v>
+      </c>
+      <c r="N47" s="66"/>
+      <c r="O47" s="66"/>
+      <c r="P47" s="66"/>
+      <c r="Q47" s="66"/>
+      <c r="R47" s="66"/>
+      <c r="S47" s="66"/>
+      <c r="T47" s="66"/>
+      <c r="U47" s="66"/>
+      <c r="V47" s="66"/>
+      <c r="W47" s="66"/>
+      <c r="X47" s="66"/>
+      <c r="Y47" s="66"/>
+      <c r="Z47" s="66"/>
+      <c r="AA47" s="66"/>
+      <c r="AB47" s="66"/>
+      <c r="AC47" s="66"/>
       <c r="AF47"/>
       <c r="AG47"/>
       <c r="AH47"/>
@@ -4674,7 +4731,7 @@
       <c r="AM47" s="6"/>
       <c r="AO47" s="7"/>
     </row>
-    <row r="48" spans="1:41" ht="20" customHeight="1">
+    <row r="48" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A48" s="22"/>
       <c r="B48" s="1"/>
       <c r="C48" s="22"/>
@@ -4692,7 +4749,7 @@
       <c r="AM48" s="6"/>
       <c r="AO48" s="7"/>
     </row>
-    <row r="49" spans="1:41" ht="20" customHeight="1">
+    <row r="49" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A49" s="22"/>
       <c r="B49" s="1"/>
       <c r="C49" s="22"/>
@@ -4710,7 +4767,7 @@
       <c r="AM49" s="6"/>
       <c r="AO49" s="7"/>
     </row>
-    <row r="50" spans="1:41" ht="20" customHeight="1">
+    <row r="50" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A50" s="22"/>
       <c r="B50" s="1"/>
       <c r="C50" s="22"/>
@@ -4738,7 +4795,7 @@
       <c r="AM50" s="6"/>
       <c r="AO50" s="7"/>
     </row>
-    <row r="51" spans="1:41" ht="20" customHeight="1">
+    <row r="51" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A51" s="22"/>
       <c r="B51" s="1"/>
       <c r="C51" s="22"/>
@@ -4770,7 +4827,7 @@
       <c r="AM51" s="6"/>
       <c r="AO51" s="7"/>
     </row>
-    <row r="52" spans="1:41" ht="20" customHeight="1">
+    <row r="52" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A52" s="22"/>
       <c r="B52" s="1"/>
       <c r="C52" s="22"/>
@@ -4801,7 +4858,7 @@
       <c r="AM52" s="6"/>
       <c r="AO52" s="7"/>
     </row>
-    <row r="53" spans="1:41" ht="20" customHeight="1">
+    <row r="53" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A53" s="22"/>
       <c r="B53" s="1"/>
       <c r="C53" s="22"/>
@@ -4843,7 +4900,7 @@
       <c r="AM53" s="6"/>
       <c r="AO53" s="7"/>
     </row>
-    <row r="54" spans="1:41" ht="20" customHeight="1">
+    <row r="54" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A54" s="22"/>
       <c r="B54" s="26"/>
       <c r="C54" s="33"/>
@@ -4885,7 +4942,7 @@
       <c r="AM54" s="6"/>
       <c r="AO54" s="7"/>
     </row>
-    <row r="55" spans="1:41" ht="20" customHeight="1">
+    <row r="55" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A55" s="22"/>
       <c r="B55" s="26"/>
       <c r="C55" s="26"/>
@@ -4929,6 +4986,35 @@
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="M21:AC21"/>
+    <mergeCell ref="M22:AC22"/>
+    <mergeCell ref="M47:AC47"/>
+    <mergeCell ref="M38:AC38"/>
+    <mergeCell ref="M39:AC39"/>
+    <mergeCell ref="M40:AC40"/>
+    <mergeCell ref="M41:AC41"/>
+    <mergeCell ref="M42:AC42"/>
+    <mergeCell ref="M43:AC43"/>
+    <mergeCell ref="M44:AC44"/>
+    <mergeCell ref="M45:AC45"/>
+    <mergeCell ref="M46:AC46"/>
+    <mergeCell ref="M23:AC23"/>
+    <mergeCell ref="AE1:AH2"/>
+    <mergeCell ref="T4:AA4"/>
+    <mergeCell ref="C33:F34"/>
+    <mergeCell ref="C9:F10"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="J5:N5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A6:AL6"/>
+    <mergeCell ref="M14:AC14"/>
+    <mergeCell ref="M15:AC15"/>
+    <mergeCell ref="M16:AC16"/>
+    <mergeCell ref="M17:AC17"/>
+    <mergeCell ref="M18:AC18"/>
+    <mergeCell ref="M19:AC19"/>
+    <mergeCell ref="M20:AC20"/>
     <mergeCell ref="A1:N4"/>
     <mergeCell ref="O1:S1"/>
     <mergeCell ref="T1:AA1"/>
@@ -4945,39 +5031,10 @@
     <mergeCell ref="O4:S4"/>
     <mergeCell ref="AI1:AK2"/>
     <mergeCell ref="AB1:AD2"/>
-    <mergeCell ref="AE1:AH2"/>
-    <mergeCell ref="T4:AA4"/>
-    <mergeCell ref="C33:F34"/>
-    <mergeCell ref="C9:F10"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="J5:N5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="A6:AL6"/>
-    <mergeCell ref="M14:AC14"/>
-    <mergeCell ref="M15:AC15"/>
-    <mergeCell ref="M16:AC16"/>
-    <mergeCell ref="M17:AC17"/>
-    <mergeCell ref="M18:AC18"/>
-    <mergeCell ref="M19:AC19"/>
-    <mergeCell ref="M20:AC20"/>
-    <mergeCell ref="M21:AC21"/>
-    <mergeCell ref="M22:AC22"/>
-    <mergeCell ref="M47:AC47"/>
-    <mergeCell ref="M38:AC38"/>
-    <mergeCell ref="M39:AC39"/>
-    <mergeCell ref="M40:AC40"/>
-    <mergeCell ref="M41:AC41"/>
-    <mergeCell ref="M42:AC42"/>
-    <mergeCell ref="M43:AC43"/>
-    <mergeCell ref="M44:AC44"/>
-    <mergeCell ref="M45:AC45"/>
-    <mergeCell ref="M46:AC46"/>
-    <mergeCell ref="M23:AC23"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="24" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" scale="24" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4988,242 +5045,246 @@
   </sheetPr>
   <dimension ref="A1:AO21"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:N4"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AF11" sqref="AF11:AL11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="3.7109375" defaultRowHeight="20" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="3.7265625" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="9" width="3.7109375" style="2"/>
+    <col min="1" max="9" width="3.7265625" style="2"/>
     <col min="10" max="14" width="4" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="3.7109375" style="2"/>
+    <col min="15" max="16384" width="3.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" ht="20" customHeight="1">
-      <c r="A1" s="49" t="s">
-        <v>58</v>
-      </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="81" t="s">
+    <row r="1" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="82"/>
-      <c r="S1" s="83"/>
-      <c r="T1" s="44" t="s">
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="83"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="U1" s="45"/>
-      <c r="V1" s="45"/>
-      <c r="W1" s="45"/>
-      <c r="X1" s="45"/>
-      <c r="Y1" s="45"/>
-      <c r="Z1" s="45"/>
-      <c r="AA1" s="46"/>
-      <c r="AB1" s="84" t="s">
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="43"/>
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="43"/>
+      <c r="AA1" s="44"/>
+      <c r="AB1" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="AC1" s="85"/>
-      <c r="AD1" s="86"/>
-      <c r="AE1" s="90" t="s">
+      <c r="AC1" s="88"/>
+      <c r="AD1" s="89"/>
+      <c r="AE1" s="93" t="s">
         <v>28</v>
       </c>
-      <c r="AF1" s="38"/>
-      <c r="AG1" s="38"/>
-      <c r="AH1" s="78"/>
-      <c r="AI1" s="84" t="s">
+      <c r="AF1" s="59"/>
+      <c r="AG1" s="59"/>
+      <c r="AH1" s="94"/>
+      <c r="AI1" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="AJ1" s="85"/>
-      <c r="AK1" s="86"/>
-      <c r="AL1" s="93">
+      <c r="AJ1" s="88"/>
+      <c r="AK1" s="89"/>
+      <c r="AL1" s="76">
         <v>45566</v>
       </c>
-      <c r="AM1" s="94"/>
-      <c r="AN1" s="94"/>
-      <c r="AO1" s="95"/>
-    </row>
-    <row r="2" spans="1:41" ht="20" customHeight="1">
-      <c r="A2" s="52"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="81" t="s">
+      <c r="AM1" s="77"/>
+      <c r="AN1" s="77"/>
+      <c r="AO1" s="78"/>
+    </row>
+    <row r="2" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="51"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="82"/>
-      <c r="Q2" s="82"/>
-      <c r="R2" s="82"/>
-      <c r="S2" s="83"/>
-      <c r="T2" s="44" t="s">
+      <c r="P2" s="83"/>
+      <c r="Q2" s="83"/>
+      <c r="R2" s="83"/>
+      <c r="S2" s="84"/>
+      <c r="T2" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="U2" s="45"/>
-      <c r="V2" s="45"/>
-      <c r="W2" s="45"/>
-      <c r="X2" s="45"/>
-      <c r="Y2" s="45"/>
-      <c r="Z2" s="45"/>
-      <c r="AA2" s="46"/>
-      <c r="AB2" s="87"/>
-      <c r="AC2" s="88"/>
-      <c r="AD2" s="89"/>
-      <c r="AE2" s="73"/>
-      <c r="AF2" s="74"/>
-      <c r="AG2" s="74"/>
-      <c r="AH2" s="75"/>
-      <c r="AI2" s="87"/>
-      <c r="AJ2" s="88"/>
-      <c r="AK2" s="89"/>
-      <c r="AL2" s="96"/>
-      <c r="AM2" s="97"/>
-      <c r="AN2" s="97"/>
-      <c r="AO2" s="98"/>
-    </row>
-    <row r="3" spans="1:41" ht="20" customHeight="1">
-      <c r="A3" s="52"/>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="81" t="s">
+      <c r="U2" s="43"/>
+      <c r="V2" s="43"/>
+      <c r="W2" s="43"/>
+      <c r="X2" s="43"/>
+      <c r="Y2" s="43"/>
+      <c r="Z2" s="43"/>
+      <c r="AA2" s="44"/>
+      <c r="AB2" s="90"/>
+      <c r="AC2" s="91"/>
+      <c r="AD2" s="92"/>
+      <c r="AE2" s="95"/>
+      <c r="AF2" s="96"/>
+      <c r="AG2" s="96"/>
+      <c r="AH2" s="97"/>
+      <c r="AI2" s="90"/>
+      <c r="AJ2" s="91"/>
+      <c r="AK2" s="92"/>
+      <c r="AL2" s="79"/>
+      <c r="AM2" s="80"/>
+      <c r="AN2" s="80"/>
+      <c r="AO2" s="81"/>
+    </row>
+    <row r="3" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="P3" s="82"/>
-      <c r="Q3" s="82"/>
-      <c r="R3" s="82"/>
-      <c r="S3" s="83"/>
-      <c r="T3" s="41" t="s">
+      <c r="P3" s="83"/>
+      <c r="Q3" s="83"/>
+      <c r="R3" s="83"/>
+      <c r="S3" s="84"/>
+      <c r="T3" s="58" t="s">
+        <v>54</v>
+      </c>
+      <c r="U3" s="85"/>
+      <c r="V3" s="85"/>
+      <c r="W3" s="85"/>
+      <c r="X3" s="85"/>
+      <c r="Y3" s="85"/>
+      <c r="Z3" s="85"/>
+      <c r="AA3" s="86"/>
+      <c r="AB3" s="87" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC3" s="88"/>
+      <c r="AD3" s="89"/>
+      <c r="AE3" s="93" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF3" s="59"/>
+      <c r="AG3" s="59"/>
+      <c r="AH3" s="94"/>
+      <c r="AI3" s="87" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ3" s="88"/>
+      <c r="AK3" s="89"/>
+      <c r="AL3" s="76">
+        <v>45607</v>
+      </c>
+      <c r="AM3" s="98"/>
+      <c r="AN3" s="98"/>
+      <c r="AO3" s="99"/>
+    </row>
+    <row r="4" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="54"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="82" t="s">
+        <v>2</v>
+      </c>
+      <c r="P4" s="83"/>
+      <c r="Q4" s="83"/>
+      <c r="R4" s="83"/>
+      <c r="S4" s="84"/>
+      <c r="T4" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="U4" s="85"/>
+      <c r="V4" s="85"/>
+      <c r="W4" s="85"/>
+      <c r="X4" s="85"/>
+      <c r="Y4" s="85"/>
+      <c r="Z4" s="85"/>
+      <c r="AA4" s="86"/>
+      <c r="AB4" s="90"/>
+      <c r="AC4" s="91"/>
+      <c r="AD4" s="92"/>
+      <c r="AE4" s="95"/>
+      <c r="AF4" s="96"/>
+      <c r="AG4" s="96"/>
+      <c r="AH4" s="97"/>
+      <c r="AI4" s="90"/>
+      <c r="AJ4" s="91"/>
+      <c r="AK4" s="92"/>
+      <c r="AL4" s="100"/>
+      <c r="AM4" s="101"/>
+      <c r="AN4" s="101"/>
+      <c r="AO4" s="102"/>
+    </row>
+    <row r="5" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="47"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="U3" s="91"/>
-      <c r="V3" s="91"/>
-      <c r="W3" s="91"/>
-      <c r="X3" s="91"/>
-      <c r="Y3" s="91"/>
-      <c r="Z3" s="91"/>
-      <c r="AA3" s="92"/>
-      <c r="AB3" s="84" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC3" s="85"/>
-      <c r="AD3" s="86"/>
-      <c r="AE3" s="90"/>
-      <c r="AF3" s="38"/>
-      <c r="AG3" s="38"/>
-      <c r="AH3" s="78"/>
-      <c r="AI3" s="84" t="s">
-        <v>7</v>
-      </c>
-      <c r="AJ3" s="85"/>
-      <c r="AK3" s="86"/>
-      <c r="AL3" s="99"/>
-      <c r="AM3" s="100"/>
-      <c r="AN3" s="100"/>
-      <c r="AO3" s="101"/>
-    </row>
-    <row r="4" spans="1:41" ht="20" customHeight="1">
-      <c r="A4" s="55"/>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="57"/>
-      <c r="O4" s="81" t="s">
-        <v>2</v>
-      </c>
-      <c r="P4" s="82"/>
-      <c r="Q4" s="82"/>
-      <c r="R4" s="82"/>
-      <c r="S4" s="83"/>
-      <c r="T4" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="U4" s="91"/>
-      <c r="V4" s="91"/>
-      <c r="W4" s="91"/>
-      <c r="X4" s="91"/>
-      <c r="Y4" s="91"/>
-      <c r="Z4" s="91"/>
-      <c r="AA4" s="92"/>
-      <c r="AB4" s="87"/>
-      <c r="AC4" s="88"/>
-      <c r="AD4" s="89"/>
-      <c r="AE4" s="73"/>
-      <c r="AF4" s="74"/>
-      <c r="AG4" s="74"/>
-      <c r="AH4" s="75"/>
-      <c r="AI4" s="87"/>
-      <c r="AJ4" s="88"/>
-      <c r="AK4" s="89"/>
-      <c r="AL4" s="102"/>
-      <c r="AM4" s="103"/>
-      <c r="AN4" s="103"/>
-      <c r="AO4" s="104"/>
-    </row>
-    <row r="5" spans="1:41" ht="20" customHeight="1">
-      <c r="A5" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="66" t="s">
-        <v>56</v>
-      </c>
-      <c r="E5" s="67"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="47" t="s">
+      <c r="E5" s="68"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="48"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="66" t="s">
-        <v>53</v>
-      </c>
-      <c r="K5" s="67"/>
-      <c r="L5" s="67"/>
-      <c r="M5" s="67"/>
-      <c r="N5" s="68"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="67" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" s="68"/>
+      <c r="L5" s="68"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="69"/>
       <c r="O5" s="11"/>
       <c r="P5" s="11"/>
       <c r="Q5" s="11"/>
@@ -5252,61 +5313,65 @@
       <c r="AN5" s="11"/>
       <c r="AO5" s="11"/>
     </row>
-    <row r="6" spans="1:41" ht="20" customHeight="1">
-      <c r="A6" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="48"/>
-      <c r="O6" s="48"/>
-      <c r="P6" s="48"/>
-      <c r="Q6" s="48"/>
-      <c r="R6" s="48"/>
-      <c r="S6" s="48"/>
-      <c r="T6" s="48"/>
-      <c r="U6" s="48"/>
-      <c r="V6" s="48"/>
-      <c r="W6" s="48"/>
-      <c r="X6" s="48"/>
-      <c r="Y6" s="48"/>
-      <c r="Z6" s="48"/>
-      <c r="AA6" s="48"/>
-      <c r="AB6" s="48"/>
-      <c r="AC6" s="48"/>
-      <c r="AD6" s="48"/>
-      <c r="AE6" s="48"/>
-      <c r="AF6" s="48"/>
-      <c r="AG6" s="48"/>
-      <c r="AH6" s="48"/>
-      <c r="AI6" s="48"/>
-      <c r="AJ6" s="48"/>
-      <c r="AK6" s="48"/>
-      <c r="AL6" s="69"/>
-      <c r="AM6" s="40" t="s">
+    <row r="6" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="47"/>
+      <c r="P6" s="47"/>
+      <c r="Q6" s="47"/>
+      <c r="R6" s="47"/>
+      <c r="S6" s="47"/>
+      <c r="T6" s="47"/>
+      <c r="U6" s="47"/>
+      <c r="V6" s="47"/>
+      <c r="W6" s="47"/>
+      <c r="X6" s="47"/>
+      <c r="Y6" s="47"/>
+      <c r="Z6" s="47"/>
+      <c r="AA6" s="47"/>
+      <c r="AB6" s="47"/>
+      <c r="AC6" s="47"/>
+      <c r="AD6" s="47"/>
+      <c r="AE6" s="70"/>
+      <c r="AF6" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG6" s="47"/>
+      <c r="AH6" s="47"/>
+      <c r="AI6" s="47"/>
+      <c r="AJ6" s="47"/>
+      <c r="AK6" s="47"/>
+      <c r="AL6" s="70"/>
+      <c r="AM6" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="AN6" s="40"/>
-      <c r="AO6" s="40"/>
-    </row>
-    <row r="7" spans="1:41" ht="20" customHeight="1">
-      <c r="A7" s="76"/>
-      <c r="B7" s="77"/>
-      <c r="C7" s="77"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="77"/>
+      <c r="AN6" s="39"/>
+      <c r="AO6" s="39"/>
+    </row>
+    <row r="7" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="103"/>
+      <c r="B7" s="104"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="104"/>
       <c r="H7" s="21"/>
       <c r="I7" s="12"/>
       <c r="J7" s="12"/>
@@ -5331,25 +5396,25 @@
       <c r="AC7" s="12"/>
       <c r="AD7" s="12"/>
       <c r="AE7" s="13"/>
-      <c r="AF7" s="38"/>
-      <c r="AG7" s="38"/>
-      <c r="AH7" s="38"/>
-      <c r="AI7" s="38"/>
-      <c r="AJ7" s="38"/>
-      <c r="AK7" s="38"/>
-      <c r="AL7" s="78"/>
+      <c r="AF7" s="59"/>
+      <c r="AG7" s="59"/>
+      <c r="AH7" s="59"/>
+      <c r="AI7" s="59"/>
+      <c r="AJ7" s="59"/>
+      <c r="AK7" s="59"/>
+      <c r="AL7" s="94"/>
       <c r="AM7" s="12"/>
       <c r="AN7" s="12"/>
       <c r="AO7" s="13"/>
     </row>
-    <row r="8" spans="1:41" ht="20" customHeight="1">
-      <c r="A8" s="79"/>
-      <c r="B8" s="80"/>
-      <c r="C8" s="80"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="80"/>
-      <c r="G8" s="80"/>
+    <row r="8" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="74"/>
+      <c r="B8" s="75"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="75"/>
+      <c r="G8" s="75"/>
       <c r="H8" s="22"/>
       <c r="I8" s="1" t="s">
         <v>30</v>
@@ -5376,25 +5441,25 @@
       <c r="AC8" s="1"/>
       <c r="AD8" s="1"/>
       <c r="AE8" s="14"/>
-      <c r="AF8" s="71"/>
-      <c r="AG8" s="71"/>
-      <c r="AH8" s="71"/>
-      <c r="AI8" s="71"/>
-      <c r="AJ8" s="71"/>
-      <c r="AK8" s="71"/>
-      <c r="AL8" s="72"/>
+      <c r="AF8" s="72"/>
+      <c r="AG8" s="72"/>
+      <c r="AH8" s="72"/>
+      <c r="AI8" s="72"/>
+      <c r="AJ8" s="72"/>
+      <c r="AK8" s="72"/>
+      <c r="AL8" s="73"/>
       <c r="AM8" s="1"/>
       <c r="AN8" s="1"/>
       <c r="AO8" s="14"/>
     </row>
-    <row r="9" spans="1:41" ht="20" customHeight="1">
-      <c r="A9" s="79"/>
-      <c r="B9" s="80"/>
-      <c r="C9" s="80"/>
-      <c r="D9" s="80"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="80"/>
-      <c r="G9" s="80"/>
+    <row r="9" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="74"/>
+      <c r="B9" s="75"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="75"/>
       <c r="H9" s="22"/>
       <c r="I9" s="25"/>
       <c r="J9" s="25"/>
@@ -5419,31 +5484,33 @@
       <c r="AC9" s="1"/>
       <c r="AD9" s="1"/>
       <c r="AE9" s="14"/>
-      <c r="AF9" s="71"/>
-      <c r="AG9" s="71"/>
-      <c r="AH9" s="71"/>
-      <c r="AI9" s="71"/>
-      <c r="AJ9" s="71"/>
-      <c r="AK9" s="71"/>
-      <c r="AL9" s="72"/>
-      <c r="AM9" s="1"/>
+      <c r="AF9" s="72"/>
+      <c r="AG9" s="72"/>
+      <c r="AH9" s="72"/>
+      <c r="AI9" s="72"/>
+      <c r="AJ9" s="72"/>
+      <c r="AK9" s="72"/>
+      <c r="AL9" s="73"/>
+      <c r="AM9" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="AN9" s="1"/>
       <c r="AO9" s="14"/>
     </row>
-    <row r="10" spans="1:41" ht="20" customHeight="1">
-      <c r="A10" s="79" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="80"/>
-      <c r="C10" s="80"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="80"/>
-      <c r="G10" s="80"/>
+    <row r="10" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A10" s="74" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="75"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="75"/>
       <c r="H10" s="22"/>
       <c r="I10" s="25"/>
       <c r="J10" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K10" s="25"/>
       <c r="L10" s="25"/>
@@ -5466,30 +5533,32 @@
       <c r="AC10" s="1"/>
       <c r="AD10" s="1"/>
       <c r="AE10" s="14"/>
-      <c r="AF10" s="71"/>
-      <c r="AG10" s="71"/>
-      <c r="AH10" s="71"/>
-      <c r="AI10" s="71"/>
-      <c r="AJ10" s="71"/>
-      <c r="AK10" s="71"/>
-      <c r="AL10" s="72"/>
-      <c r="AM10" s="1"/>
+      <c r="AF10" s="72"/>
+      <c r="AG10" s="72"/>
+      <c r="AH10" s="72"/>
+      <c r="AI10" s="72"/>
+      <c r="AJ10" s="72"/>
+      <c r="AK10" s="72"/>
+      <c r="AL10" s="73"/>
+      <c r="AM10" s="38" t="s">
+        <v>65</v>
+      </c>
       <c r="AN10" s="1"/>
       <c r="AO10" s="14"/>
     </row>
-    <row r="11" spans="1:41" ht="20" customHeight="1">
-      <c r="A11" s="79"/>
-      <c r="B11" s="80"/>
-      <c r="C11" s="80"/>
-      <c r="D11" s="80"/>
-      <c r="E11" s="80"/>
-      <c r="F11" s="80"/>
-      <c r="G11" s="80"/>
+    <row r="11" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A11" s="74"/>
+      <c r="B11" s="75"/>
+      <c r="C11" s="75"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="75"/>
+      <c r="G11" s="75"/>
       <c r="H11" s="22"/>
       <c r="I11" s="25"/>
       <c r="J11" s="25"/>
       <c r="K11" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L11" s="25"/>
       <c r="M11" s="25"/>
@@ -5511,30 +5580,32 @@
       <c r="AC11" s="1"/>
       <c r="AD11" s="1"/>
       <c r="AE11" s="14"/>
-      <c r="AF11" s="71"/>
-      <c r="AG11" s="71"/>
-      <c r="AH11" s="71"/>
-      <c r="AI11" s="71"/>
-      <c r="AJ11" s="71"/>
-      <c r="AK11" s="71"/>
-      <c r="AL11" s="72"/>
-      <c r="AM11" s="1"/>
+      <c r="AF11" s="72"/>
+      <c r="AG11" s="72"/>
+      <c r="AH11" s="72"/>
+      <c r="AI11" s="72"/>
+      <c r="AJ11" s="72"/>
+      <c r="AK11" s="72"/>
+      <c r="AL11" s="73"/>
+      <c r="AM11" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="AN11" s="1"/>
       <c r="AO11" s="14"/>
     </row>
-    <row r="12" spans="1:41" ht="20" customHeight="1">
-      <c r="A12" s="79"/>
-      <c r="B12" s="80"/>
-      <c r="C12" s="80"/>
-      <c r="D12" s="80"/>
-      <c r="E12" s="80"/>
-      <c r="F12" s="80"/>
-      <c r="G12" s="80"/>
+    <row r="12" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A12" s="74"/>
+      <c r="B12" s="75"/>
+      <c r="C12" s="75"/>
+      <c r="D12" s="75"/>
+      <c r="E12" s="75"/>
+      <c r="F12" s="75"/>
+      <c r="G12" s="75"/>
       <c r="H12" s="22"/>
       <c r="I12" s="25"/>
       <c r="J12" s="25"/>
       <c r="K12" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
@@ -5545,25 +5616,25 @@
       <c r="AC12" s="1"/>
       <c r="AD12" s="1"/>
       <c r="AE12" s="14"/>
-      <c r="AF12" s="71"/>
-      <c r="AG12" s="71"/>
-      <c r="AH12" s="71"/>
-      <c r="AI12" s="71"/>
-      <c r="AJ12" s="71"/>
-      <c r="AK12" s="71"/>
-      <c r="AL12" s="72"/>
+      <c r="AF12" s="72"/>
+      <c r="AG12" s="72"/>
+      <c r="AH12" s="72"/>
+      <c r="AI12" s="72"/>
+      <c r="AJ12" s="72"/>
+      <c r="AK12" s="72"/>
+      <c r="AL12" s="73"/>
       <c r="AM12" s="1"/>
       <c r="AN12" s="1"/>
       <c r="AO12" s="14"/>
     </row>
-    <row r="13" spans="1:41" ht="20" customHeight="1">
-      <c r="A13" s="79"/>
-      <c r="B13" s="80"/>
-      <c r="C13" s="80"/>
-      <c r="D13" s="80"/>
-      <c r="E13" s="80"/>
-      <c r="F13" s="80"/>
-      <c r="G13" s="80"/>
+    <row r="13" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A13" s="74"/>
+      <c r="B13" s="75"/>
+      <c r="C13" s="75"/>
+      <c r="D13" s="75"/>
+      <c r="E13" s="75"/>
+      <c r="F13" s="75"/>
+      <c r="G13" s="75"/>
       <c r="H13" s="22"/>
       <c r="I13" s="25"/>
       <c r="J13" s="25"/>
@@ -5576,25 +5647,25 @@
       <c r="AC13" s="1"/>
       <c r="AD13" s="1"/>
       <c r="AE13" s="14"/>
-      <c r="AF13" s="71"/>
-      <c r="AG13" s="71"/>
-      <c r="AH13" s="71"/>
-      <c r="AI13" s="71"/>
-      <c r="AJ13" s="71"/>
-      <c r="AK13" s="71"/>
-      <c r="AL13" s="72"/>
+      <c r="AF13" s="72"/>
+      <c r="AG13" s="72"/>
+      <c r="AH13" s="72"/>
+      <c r="AI13" s="72"/>
+      <c r="AJ13" s="72"/>
+      <c r="AK13" s="72"/>
+      <c r="AL13" s="73"/>
       <c r="AM13" s="1"/>
       <c r="AN13" s="1"/>
       <c r="AO13" s="14"/>
     </row>
-    <row r="14" spans="1:41" ht="20" customHeight="1">
-      <c r="A14" s="79"/>
-      <c r="B14" s="80"/>
-      <c r="C14" s="80"/>
-      <c r="D14" s="80"/>
-      <c r="E14" s="80"/>
-      <c r="F14" s="80"/>
-      <c r="G14" s="80"/>
+    <row r="14" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A14" s="74"/>
+      <c r="B14" s="75"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="75"/>
+      <c r="G14" s="75"/>
       <c r="H14" s="22"/>
       <c r="I14" s="25"/>
       <c r="J14" s="25"/>
@@ -5606,55 +5677,55 @@
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
       <c r="AE14" s="14"/>
-      <c r="AF14" s="71"/>
-      <c r="AG14" s="71"/>
-      <c r="AH14" s="71"/>
-      <c r="AI14" s="71"/>
-      <c r="AJ14" s="71"/>
-      <c r="AK14" s="71"/>
-      <c r="AL14" s="72"/>
+      <c r="AF14" s="72"/>
+      <c r="AG14" s="72"/>
+      <c r="AH14" s="72"/>
+      <c r="AI14" s="72"/>
+      <c r="AJ14" s="72"/>
+      <c r="AK14" s="72"/>
+      <c r="AL14" s="73"/>
       <c r="AM14" s="1"/>
       <c r="AN14" s="1"/>
       <c r="AO14" s="14"/>
     </row>
-    <row r="15" spans="1:41" ht="20" customHeight="1">
-      <c r="A15" s="79"/>
-      <c r="B15" s="80"/>
-      <c r="C15" s="80"/>
-      <c r="D15" s="80"/>
-      <c r="E15" s="80"/>
-      <c r="F15" s="80"/>
-      <c r="G15" s="80"/>
+    <row r="15" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A15" s="74"/>
+      <c r="B15" s="75"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="75"/>
+      <c r="F15" s="75"/>
+      <c r="G15" s="75"/>
       <c r="H15" s="22"/>
       <c r="I15" s="25"/>
       <c r="J15" s="25"/>
       <c r="L15" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
       <c r="AE15" s="14"/>
-      <c r="AF15" s="71"/>
-      <c r="AG15" s="71"/>
-      <c r="AH15" s="71"/>
-      <c r="AI15" s="71"/>
-      <c r="AJ15" s="71"/>
-      <c r="AK15" s="71"/>
-      <c r="AL15" s="72"/>
+      <c r="AF15" s="72"/>
+      <c r="AG15" s="72"/>
+      <c r="AH15" s="72"/>
+      <c r="AI15" s="72"/>
+      <c r="AJ15" s="72"/>
+      <c r="AK15" s="72"/>
+      <c r="AL15" s="73"/>
       <c r="AM15" s="1"/>
       <c r="AN15" s="1"/>
       <c r="AO15" s="14"/>
     </row>
-    <row r="16" spans="1:41" ht="20" customHeight="1">
-      <c r="A16" s="79"/>
-      <c r="B16" s="80"/>
-      <c r="C16" s="80"/>
-      <c r="D16" s="80"/>
-      <c r="E16" s="80"/>
-      <c r="F16" s="80"/>
-      <c r="G16" s="80"/>
+    <row r="16" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A16" s="74"/>
+      <c r="B16" s="75"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="75"/>
       <c r="H16" s="22"/>
       <c r="I16" s="25"/>
       <c r="J16" s="25"/>
@@ -5664,25 +5735,25 @@
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
       <c r="AE16" s="14"/>
-      <c r="AF16" s="71"/>
-      <c r="AG16" s="71"/>
-      <c r="AH16" s="71"/>
-      <c r="AI16" s="71"/>
-      <c r="AJ16" s="71"/>
-      <c r="AK16" s="71"/>
-      <c r="AL16" s="72"/>
+      <c r="AF16" s="72"/>
+      <c r="AG16" s="72"/>
+      <c r="AH16" s="72"/>
+      <c r="AI16" s="72"/>
+      <c r="AJ16" s="72"/>
+      <c r="AK16" s="72"/>
+      <c r="AL16" s="73"/>
       <c r="AM16" s="1"/>
       <c r="AN16" s="1"/>
       <c r="AO16" s="14"/>
     </row>
-    <row r="17" spans="1:41" ht="20" customHeight="1">
-      <c r="A17" s="79"/>
-      <c r="B17" s="80"/>
-      <c r="C17" s="80"/>
-      <c r="D17" s="80"/>
-      <c r="E17" s="80"/>
-      <c r="F17" s="80"/>
-      <c r="G17" s="80"/>
+    <row r="17" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A17" s="74"/>
+      <c r="B17" s="75"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="75"/>
       <c r="H17" s="22"/>
       <c r="I17" s="25"/>
       <c r="J17" s="25"/>
@@ -5691,25 +5762,25 @@
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
       <c r="AE17" s="14"/>
-      <c r="AF17" s="71"/>
-      <c r="AG17" s="71"/>
-      <c r="AH17" s="71"/>
-      <c r="AI17" s="71"/>
-      <c r="AJ17" s="71"/>
-      <c r="AK17" s="71"/>
-      <c r="AL17" s="72"/>
+      <c r="AF17" s="72"/>
+      <c r="AG17" s="72"/>
+      <c r="AH17" s="72"/>
+      <c r="AI17" s="72"/>
+      <c r="AJ17" s="72"/>
+      <c r="AK17" s="72"/>
+      <c r="AL17" s="73"/>
       <c r="AM17" s="1"/>
       <c r="AN17" s="1"/>
       <c r="AO17" s="14"/>
     </row>
-    <row r="18" spans="1:41" ht="20" customHeight="1">
-      <c r="A18" s="79"/>
-      <c r="B18" s="80"/>
-      <c r="C18" s="80"/>
-      <c r="D18" s="80"/>
-      <c r="E18" s="80"/>
-      <c r="F18" s="80"/>
-      <c r="G18" s="80"/>
+    <row r="18" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A18" s="74"/>
+      <c r="B18" s="75"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="75"/>
       <c r="H18" s="22"/>
       <c r="I18" s="25"/>
       <c r="J18" s="25"/>
@@ -5719,25 +5790,25 @@
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
       <c r="AE18" s="14"/>
-      <c r="AF18" s="71"/>
-      <c r="AG18" s="71"/>
-      <c r="AH18" s="71"/>
-      <c r="AI18" s="71"/>
-      <c r="AJ18" s="71"/>
-      <c r="AK18" s="71"/>
-      <c r="AL18" s="72"/>
+      <c r="AF18" s="72"/>
+      <c r="AG18" s="72"/>
+      <c r="AH18" s="72"/>
+      <c r="AI18" s="72"/>
+      <c r="AJ18" s="72"/>
+      <c r="AK18" s="72"/>
+      <c r="AL18" s="73"/>
       <c r="AM18" s="1"/>
       <c r="AN18" s="1"/>
       <c r="AO18" s="14"/>
     </row>
-    <row r="19" spans="1:41" ht="20" customHeight="1">
-      <c r="A19" s="70"/>
-      <c r="B19" s="71"/>
-      <c r="C19" s="71"/>
-      <c r="D19" s="71"/>
-      <c r="E19" s="71"/>
-      <c r="F19" s="71"/>
-      <c r="G19" s="71"/>
+    <row r="19" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A19" s="71"/>
+      <c r="B19" s="72"/>
+      <c r="C19" s="72"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="72"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="72"/>
       <c r="H19" s="22"/>
       <c r="I19" s="25"/>
       <c r="J19" s="25"/>
@@ -5746,25 +5817,25 @@
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
       <c r="AE19" s="14"/>
-      <c r="AF19" s="71"/>
-      <c r="AG19" s="71"/>
-      <c r="AH19" s="71"/>
-      <c r="AI19" s="71"/>
-      <c r="AJ19" s="71"/>
-      <c r="AK19" s="71"/>
-      <c r="AL19" s="72"/>
+      <c r="AF19" s="72"/>
+      <c r="AG19" s="72"/>
+      <c r="AH19" s="72"/>
+      <c r="AI19" s="72"/>
+      <c r="AJ19" s="72"/>
+      <c r="AK19" s="72"/>
+      <c r="AL19" s="73"/>
       <c r="AM19" s="1"/>
       <c r="AN19" s="1"/>
       <c r="AO19" s="14"/>
     </row>
-    <row r="20" spans="1:41" ht="20" customHeight="1">
-      <c r="A20" s="70"/>
-      <c r="B20" s="71"/>
-      <c r="C20" s="71"/>
-      <c r="D20" s="71"/>
-      <c r="E20" s="71"/>
-      <c r="F20" s="71"/>
-      <c r="G20" s="72"/>
+    <row r="20" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A20" s="71"/>
+      <c r="B20" s="72"/>
+      <c r="C20" s="72"/>
+      <c r="D20" s="72"/>
+      <c r="E20" s="72"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="73"/>
       <c r="H20" s="22"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -5789,25 +5860,25 @@
       <c r="AC20" s="1"/>
       <c r="AD20" s="1"/>
       <c r="AE20" s="14"/>
-      <c r="AF20" s="70"/>
-      <c r="AG20" s="71"/>
-      <c r="AH20" s="71"/>
-      <c r="AI20" s="71"/>
-      <c r="AJ20" s="71"/>
-      <c r="AK20" s="71"/>
-      <c r="AL20" s="72"/>
+      <c r="AF20" s="71"/>
+      <c r="AG20" s="72"/>
+      <c r="AH20" s="72"/>
+      <c r="AI20" s="72"/>
+      <c r="AJ20" s="72"/>
+      <c r="AK20" s="72"/>
+      <c r="AL20" s="73"/>
       <c r="AM20" s="1"/>
       <c r="AN20" s="1"/>
       <c r="AO20" s="14"/>
     </row>
-    <row r="21" spans="1:41" ht="20" customHeight="1">
-      <c r="A21" s="73"/>
-      <c r="B21" s="74"/>
-      <c r="C21" s="74"/>
-      <c r="D21" s="74"/>
-      <c r="E21" s="74"/>
-      <c r="F21" s="74"/>
-      <c r="G21" s="74"/>
+    <row r="21" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A21" s="95"/>
+      <c r="B21" s="96"/>
+      <c r="C21" s="96"/>
+      <c r="D21" s="96"/>
+      <c r="E21" s="96"/>
+      <c r="F21" s="96"/>
+      <c r="G21" s="96"/>
       <c r="H21" s="23"/>
       <c r="I21" s="15"/>
       <c r="J21" s="15"/>
@@ -5832,56 +5903,22 @@
       <c r="AC21" s="15"/>
       <c r="AD21" s="15"/>
       <c r="AE21" s="16"/>
-      <c r="AF21" s="74"/>
-      <c r="AG21" s="74"/>
-      <c r="AH21" s="74"/>
-      <c r="AI21" s="74"/>
-      <c r="AJ21" s="74"/>
-      <c r="AK21" s="74"/>
-      <c r="AL21" s="75"/>
+      <c r="AF21" s="96"/>
+      <c r="AG21" s="96"/>
+      <c r="AH21" s="96"/>
+      <c r="AI21" s="96"/>
+      <c r="AJ21" s="96"/>
+      <c r="AK21" s="96"/>
+      <c r="AL21" s="97"/>
       <c r="AM21" s="15"/>
       <c r="AN21" s="15"/>
       <c r="AO21" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="53">
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="AF19:AL19"/>
-    <mergeCell ref="A17:G17"/>
-    <mergeCell ref="AF17:AL17"/>
-    <mergeCell ref="A18:G18"/>
-    <mergeCell ref="AF18:AL18"/>
-    <mergeCell ref="AF16:AL16"/>
-    <mergeCell ref="A11:G11"/>
-    <mergeCell ref="AF11:AL11"/>
-    <mergeCell ref="A13:G13"/>
-    <mergeCell ref="AF13:AL13"/>
-    <mergeCell ref="A14:G14"/>
-    <mergeCell ref="AF14:AL14"/>
-    <mergeCell ref="A12:G12"/>
-    <mergeCell ref="AF12:AL12"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="J5:N5"/>
-    <mergeCell ref="A6:AL6"/>
-    <mergeCell ref="AL1:AO2"/>
-    <mergeCell ref="O2:S2"/>
-    <mergeCell ref="T2:AA2"/>
-    <mergeCell ref="O3:S3"/>
-    <mergeCell ref="T3:AA3"/>
-    <mergeCell ref="AB3:AD4"/>
-    <mergeCell ref="AE3:AH4"/>
-    <mergeCell ref="AI3:AK4"/>
-    <mergeCell ref="AL3:AO4"/>
-    <mergeCell ref="O4:S4"/>
-    <mergeCell ref="AI1:AK2"/>
-    <mergeCell ref="A1:N4"/>
-    <mergeCell ref="O1:S1"/>
-    <mergeCell ref="T1:AA1"/>
-    <mergeCell ref="AB1:AD2"/>
-    <mergeCell ref="AE1:AH2"/>
-    <mergeCell ref="T4:AA4"/>
+  <mergeCells count="55">
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="AF6:AL6"/>
+    <mergeCell ref="H6:AE6"/>
     <mergeCell ref="A20:G20"/>
     <mergeCell ref="AF20:AL20"/>
     <mergeCell ref="A21:G21"/>
@@ -5898,9 +5935,45 @@
     <mergeCell ref="A15:G15"/>
     <mergeCell ref="AF15:AL15"/>
     <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A1:N4"/>
+    <mergeCell ref="O1:S1"/>
+    <mergeCell ref="T1:AA1"/>
+    <mergeCell ref="AB1:AD2"/>
+    <mergeCell ref="AE1:AH2"/>
+    <mergeCell ref="T4:AA4"/>
+    <mergeCell ref="AL1:AO2"/>
+    <mergeCell ref="O2:S2"/>
+    <mergeCell ref="T2:AA2"/>
+    <mergeCell ref="O3:S3"/>
+    <mergeCell ref="T3:AA3"/>
+    <mergeCell ref="AB3:AD4"/>
+    <mergeCell ref="AE3:AH4"/>
+    <mergeCell ref="AI3:AK4"/>
+    <mergeCell ref="AL3:AO4"/>
+    <mergeCell ref="O4:S4"/>
+    <mergeCell ref="AI1:AK2"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="J5:N5"/>
+    <mergeCell ref="AF16:AL16"/>
+    <mergeCell ref="A11:G11"/>
+    <mergeCell ref="AF11:AL11"/>
+    <mergeCell ref="A13:G13"/>
+    <mergeCell ref="AF13:AL13"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="AF14:AL14"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="AF12:AL12"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="AF19:AL19"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="AF17:AL17"/>
+    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="AF18:AL18"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="46" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" scale="46" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>